--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1996761.945624657</v>
+        <v>1973154.227540054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7311922.400320282</v>
+        <v>7311922.400320278</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4647174.507226542</v>
+        <v>4647174.50722654</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8679180.162419571</v>
+        <v>8679180.162419572</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T2" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="G3" t="n">
-        <v>13.47865120333094</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H3" t="n">
         <v>15.30273751513505</v>
@@ -761,7 +761,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13.47865120333094</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,64 +977,64 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.73205987707309</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="U6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16.01716120747037</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>25.62029119463083</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W9" t="n">
-        <v>25.62029119463083</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F10" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="G10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09986854081334967</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I11" t="n">
-        <v>77.25676497358228</v>
+        <v>77.25676497358225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>13.43196701262805</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.4946483329072</v>
       </c>
       <c r="H12" t="n">
-        <v>94.37926369119782</v>
+        <v>94.37926369119774</v>
       </c>
       <c r="I12" t="n">
-        <v>25.74040338702138</v>
+        <v>25.74040338702137</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>37.52681375459062</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T13" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U13" t="n">
-        <v>158.0658423020485</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>257.0974969013951</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.10756829956625</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>299.2136088149868</v>
+        <v>67.61007861475507</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.81117261129137</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.003810860145</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3227360255122</v>
+        <v>79.3060856429816</v>
       </c>
       <c r="U19" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>243.426013563283</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U20" t="n">
-        <v>167.9524494174897</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>82.70566752911148</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>29.14569036528603</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2344822917747</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>70.70767448658408</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T25" t="n">
         <v>221.3227360255122</v>
@@ -2535,16 +2535,16 @@
         <v>286.2344822917747</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>114.4162004426267</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>161.0924410202825</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>182.2716836468229</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.98456399144456</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>166.8807956750555</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U31" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>213.5589432471279</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.0997302538897</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>257.6382379586454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.0477147806438</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T37" t="n">
         <v>221.3227360255122</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>190.7114227323237</v>
+        <v>265.6743509307025</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>295.0108961349162</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>80.64248045606627</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.47403548850078</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.003810860145</v>
@@ -3720,13 +3720,13 @@
         <v>286.2344822917747</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>195.5866402039477</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>157.4835776687622</v>
       </c>
       <c r="I41" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>295.9863975665958</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>28.5847496890667</v>
       </c>
       <c r="C43" t="n">
-        <v>153.0985774378533</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>27.20628226707352</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H44" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T44" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.9053597105934</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I45" t="n">
-        <v>25.74040338702101</v>
+        <v>25.74040338702138</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4409498386617</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.74367610875763</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>179.0202615804666</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E2" t="n">
-        <v>35.69701961884617</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
@@ -4351,31 +4351,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="F3" t="n">
-        <v>45.75363943919166</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="G3" t="n">
-        <v>32.13884024390788</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="H3" t="n">
-        <v>16.68152962255934</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I3" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L3" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M3" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N3" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O3" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P3" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
@@ -4445,16 +4445,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="V3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D4" t="n">
-        <v>1.224219001210804</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F4" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="G4" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H4" t="n">
         <v>1.224219001210804</v>
@@ -4515,25 +4515,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T4" t="n">
-        <v>30.29632881784312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U4" t="n">
-        <v>16.68152962255934</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.224219001210804</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="C5" t="n">
-        <v>30.29632881784312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D5" t="n">
-        <v>30.29632881784312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E5" t="n">
-        <v>30.29632881784312</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F5" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I5" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L5" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>31.52363928117821</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>46.6733494211619</v>
-      </c>
-      <c r="N5" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
         <v>61.2109500605402</v>
@@ -4588,31 +4588,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T5" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>61.2109500605402</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="V5" t="n">
-        <v>61.2109500605402</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="W5" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="X5" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E6" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F6" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G6" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H6" t="n">
-        <v>16.68152962255934</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I6" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L6" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M6" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="N6" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="O6" t="n">
+        <v>30.9115297805728</v>
+      </c>
+      <c r="P6" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="N6" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="O6" t="n">
-        <v>61.2109500605402</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V6" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W6" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X6" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y6" t="n">
-        <v>32.13884024390788</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="C7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="D7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="E7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="F7" t="n">
-        <v>16.68152962255934</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="H7" t="n">
         <v>16.68152962255934</v>
@@ -4755,22 +4755,22 @@
         <v>58.46202002507908</v>
       </c>
       <c r="T7" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U7" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V7" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W7" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>92.38954941029624</v>
+      </c>
+      <c r="C8" t="n">
+        <v>92.38954941029624</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92.38954941029624</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.38954941029624</v>
+      </c>
+      <c r="F8" t="n">
         <v>66.51046739551762</v>
       </c>
-      <c r="C8" t="n">
-        <v>66.51046739551762</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.33151668090109</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50.33151668090109</v>
-      </c>
-      <c r="F8" t="n">
-        <v>43.38601593169762</v>
-      </c>
       <c r="G8" t="n">
-        <v>27.92870531034908</v>
+        <v>40.631385380739</v>
       </c>
       <c r="H8" t="n">
-        <v>27.92870531034908</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N8" t="n">
+        <v>52.77779986093951</v>
+      </c>
+      <c r="O8" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="O8" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4828,28 +4828,28 @@
         <v>92.38954941029624</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="U8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="V8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="W8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="X8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.51046739551762</v>
+        <v>92.38954941029624</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="C9" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="D9" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F9" t="n">
-        <v>2.80375594835618</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G9" t="n">
         <v>2.80375594835618</v>
@@ -4886,19 +4886,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>2.049623295570466</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>27.41371157825499</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>52.77779986093951</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>78.14188814362403</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
         <v>102.4811647785233</v>
@@ -4913,22 +4913,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="U9" t="n">
         <v>76.6020827637447</v>
-      </c>
-      <c r="U9" t="n">
-        <v>50.72300074896609</v>
       </c>
       <c r="V9" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="W9" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="X9" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.84391873418747</v>
+        <v>28.6828379631348</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.85315272828358</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="C10" t="n">
-        <v>73.85315272828358</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D10" t="n">
-        <v>73.85315272828358</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E10" t="n">
-        <v>73.85315272828358</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F10" t="n">
-        <v>47.97407071350496</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09498869872634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09498869872634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09498869872634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09498869872634</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -4983,31 +4983,31 @@
         <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y10" t="n">
-        <v>73.85315272828358</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1325.564347235877</v>
+        <v>1238.460783110687</v>
       </c>
       <c r="C11" t="n">
-        <v>956.6018302954653</v>
+        <v>1238.460783110687</v>
       </c>
       <c r="D11" t="n">
-        <v>956.5009529815125</v>
+        <v>1238.460783110687</v>
       </c>
       <c r="E11" t="n">
-        <v>956.5009529815125</v>
+        <v>852.6725305124423</v>
       </c>
       <c r="F11" t="n">
-        <v>545.515048191905</v>
+        <v>852.6725305124423</v>
       </c>
       <c r="G11" t="n">
-        <v>129.5077627453789</v>
+        <v>436.6652450659163</v>
       </c>
       <c r="H11" t="n">
         <v>129.5077627453789</v>
@@ -5041,25 +5041,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J11" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K11" t="n">
-        <v>379.856924397043</v>
+        <v>547.2625734173961</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.805926201329</v>
+        <v>853.7084944021827</v>
       </c>
       <c r="M11" t="n">
-        <v>1389.455496548619</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N11" t="n">
-        <v>1772.748734916092</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O11" t="n">
-        <v>2159.705861179111</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P11" t="n">
-        <v>2422.724910692196</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q11" t="n">
         <v>2572.068516582769</v>
@@ -5071,22 +5071,22 @@
         <v>2441.938092742883</v>
       </c>
       <c r="T11" t="n">
-        <v>2441.938092742883</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U11" t="n">
-        <v>2441.938092742883</v>
+        <v>1978.26284008898</v>
       </c>
       <c r="V11" t="n">
-        <v>2441.938092742883</v>
+        <v>1978.26284008898</v>
       </c>
       <c r="W11" t="n">
-        <v>2089.169437472769</v>
+        <v>1625.494184818866</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.703679211689</v>
+        <v>1252.028426557786</v>
       </c>
       <c r="Y11" t="n">
-        <v>1325.564347235877</v>
+        <v>1238.460783110687</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>764.3733272413059</v>
       </c>
       <c r="D12" t="n">
-        <v>615.4389175800546</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E12" t="n">
-        <v>456.2014625745991</v>
+        <v>456.201462574599</v>
       </c>
       <c r="F12" t="n">
-        <v>309.6669046014841</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G12" t="n">
-        <v>172.8036234571334</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H12" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006484</v>
       </c>
       <c r="I12" t="n">
         <v>51.47062640842712</v>
@@ -5126,19 +5126,19 @@
         <v>257.9353879451182</v>
       </c>
       <c r="L12" t="n">
-        <v>885.3237961368383</v>
+        <v>518.1918542864138</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.387685024925</v>
+        <v>1155.140856090699</v>
       </c>
       <c r="N12" t="n">
-        <v>1759.278962343452</v>
+        <v>1792.089857894985</v>
       </c>
       <c r="O12" t="n">
-        <v>2053.602678427199</v>
+        <v>2261.57919328569</v>
       </c>
       <c r="P12" t="n">
-        <v>2270.490342378295</v>
+        <v>2478.466857236785</v>
       </c>
       <c r="Q12" t="n">
         <v>2573.531320421356</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.5003594031559</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C13" t="n">
-        <v>349.5003594031559</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D13" t="n">
-        <v>199.3837199908202</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E13" t="n">
         <v>51.47062640842712</v>
@@ -5223,28 +5223,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R13" t="n">
-        <v>1504.812354733476</v>
+        <v>1466.906482254092</v>
       </c>
       <c r="S13" t="n">
-        <v>1504.812354733476</v>
+        <v>1267.912733910511</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.254035515787</v>
+        <v>1044.354414692822</v>
       </c>
       <c r="U13" t="n">
-        <v>1121.591568544021</v>
+        <v>1044.354414692822</v>
       </c>
       <c r="V13" t="n">
-        <v>866.9070803381339</v>
+        <v>789.6699264869352</v>
       </c>
       <c r="W13" t="n">
-        <v>577.4899103011733</v>
+        <v>500.2527564499746</v>
       </c>
       <c r="X13" t="n">
-        <v>349.5003594031559</v>
+        <v>272.2632055519572</v>
       </c>
       <c r="Y13" t="n">
-        <v>349.5003594031559</v>
+        <v>51.47062640842712</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1658.531516337311</v>
+        <v>1112.960605767738</v>
       </c>
       <c r="C14" t="n">
-        <v>1289.5689993969</v>
+        <v>1112.960605767738</v>
       </c>
       <c r="D14" t="n">
-        <v>931.3033007901493</v>
+        <v>853.2661644531973</v>
       </c>
       <c r="E14" t="n">
-        <v>545.515048191905</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="F14" t="n">
-        <v>545.515048191905</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G14" t="n">
-        <v>129.5077627453789</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5077627453789</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I14" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J14" t="n">
-        <v>162.585705782391</v>
+        <v>321.2563972852578</v>
       </c>
       <c r="K14" t="n">
-        <v>379.856924397043</v>
+        <v>538.5276158999098</v>
       </c>
       <c r="L14" t="n">
-        <v>686.3028453818296</v>
+        <v>844.9735368846964</v>
       </c>
       <c r="M14" t="n">
-        <v>1058.95241572912</v>
+        <v>1217.623107231986</v>
       </c>
       <c r="N14" t="n">
-        <v>1442.245654096593</v>
+        <v>1600.916345599459</v>
       </c>
       <c r="O14" t="n">
-        <v>1790.843328922939</v>
+        <v>1949.514020425805</v>
       </c>
       <c r="P14" t="n">
         <v>2212.533069938891</v>
@@ -5305,25 +5305,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S14" t="n">
-        <v>2441.938092742883</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T14" t="n">
-        <v>2441.938092742883</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U14" t="n">
-        <v>2441.938092742883</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="V14" t="n">
-        <v>2441.938092742883</v>
+        <v>2242.468433077785</v>
       </c>
       <c r="W14" t="n">
-        <v>2441.938092742883</v>
+        <v>1889.699777807671</v>
       </c>
       <c r="X14" t="n">
-        <v>2068.472334481803</v>
+        <v>1889.699777807671</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.131356401433</v>
+        <v>1499.56044583186</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>938.8263565224329</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C15" t="n">
-        <v>764.3733272413059</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D15" t="n">
         <v>615.4389175800545</v>
       </c>
       <c r="E15" t="n">
-        <v>456.201462574599</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F15" t="n">
         <v>309.666904601484</v>
@@ -5351,31 +5351,31 @@
         <v>172.8036234571333</v>
       </c>
       <c r="H15" t="n">
-        <v>77.47103387006484</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I15" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J15" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K15" t="n">
-        <v>519.755972587571</v>
+        <v>644.5860975745759</v>
       </c>
       <c r="L15" t="n">
-        <v>780.0124389288665</v>
+        <v>904.8425639158713</v>
       </c>
       <c r="M15" t="n">
-        <v>1416.961440733152</v>
+        <v>1227.906452803958</v>
       </c>
       <c r="N15" t="n">
-        <v>1762.98451436925</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O15" t="n">
-        <v>2261.57919328569</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P15" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q15" t="n">
         <v>2573.531320421356</v>
@@ -5396,7 +5396,7 @@
         <v>1776.890849241189</v>
       </c>
       <c r="W15" t="n">
-        <v>1522.653492512988</v>
+        <v>1522.653492512987</v>
       </c>
       <c r="X15" t="n">
         <v>1314.801992307455</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>739.4948475066581</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="C17" t="n">
-        <v>739.4948475066581</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="D17" t="n">
-        <v>739.4948475066581</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="E17" t="n">
-        <v>353.7065949084138</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="F17" t="n">
-        <v>51.47062640842712</v>
+        <v>852.6725305124423</v>
       </c>
       <c r="G17" t="n">
-        <v>51.47062640842712</v>
+        <v>436.6652450659163</v>
       </c>
       <c r="H17" t="n">
-        <v>51.47062640842712</v>
+        <v>129.5077627453789</v>
       </c>
       <c r="I17" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J17" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K17" t="n">
-        <v>379.856924397043</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L17" t="n">
-        <v>686.3028453818296</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M17" t="n">
-        <v>1058.95241572912</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N17" t="n">
-        <v>1442.245654096593</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O17" t="n">
-        <v>2079.194655900878</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P17" t="n">
-        <v>2422.724910692196</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q17" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R17" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S17" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742883</v>
       </c>
       <c r="T17" t="n">
-        <v>2573.531320421356</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U17" t="n">
-        <v>2573.531320421356</v>
+        <v>1978.26284008898</v>
       </c>
       <c r="V17" t="n">
-        <v>2242.468433077785</v>
+        <v>1647.199952745409</v>
       </c>
       <c r="W17" t="n">
-        <v>1889.699777807671</v>
+        <v>1294.431297475295</v>
       </c>
       <c r="X17" t="n">
-        <v>1516.234019546592</v>
+        <v>920.9655392142151</v>
       </c>
       <c r="Y17" t="n">
-        <v>1126.09468757078</v>
+        <v>920.9655392142151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>938.8263565224329</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C18" t="n">
-        <v>764.3733272413059</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D18" t="n">
         <v>615.4389175800545</v>
       </c>
       <c r="E18" t="n">
-        <v>456.201462574599</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F18" t="n">
         <v>309.666904601484</v>
       </c>
       <c r="G18" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H18" t="n">
-        <v>77.47103387006473</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I18" t="n">
         <v>51.47062640842712</v>
@@ -5597,22 +5597,22 @@
         <v>98.83215951206782</v>
       </c>
       <c r="K18" t="n">
-        <v>519.755972587571</v>
+        <v>514.6573925244356</v>
       </c>
       <c r="L18" t="n">
-        <v>955.5432289572207</v>
+        <v>774.9138588657311</v>
       </c>
       <c r="M18" t="n">
-        <v>1278.607117845307</v>
+        <v>1097.977747753817</v>
       </c>
       <c r="N18" t="n">
-        <v>1624.630191481404</v>
+        <v>1444.000821389915</v>
       </c>
       <c r="O18" t="n">
-        <v>2261.57919328569</v>
+        <v>1738.324537473662</v>
       </c>
       <c r="P18" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q18" t="n">
         <v>2573.531320421356</v>
@@ -5633,7 +5633,7 @@
         <v>1776.890849241189</v>
       </c>
       <c r="W18" t="n">
-        <v>1522.653492512988</v>
+        <v>1522.653492512987</v>
       </c>
       <c r="X18" t="n">
         <v>1314.801992307455</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1350.727188696532</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C19" t="n">
-        <v>1350.727188696532</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D19" t="n">
-        <v>1350.727188696532</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E19" t="n">
-        <v>1350.727188696532</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F19" t="n">
-        <v>1203.837241198622</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G19" t="n">
-        <v>1203.837241198622</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H19" t="n">
-        <v>1203.837241198622</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I19" t="n">
-        <v>1120.189592096307</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="J19" t="n">
-        <v>1136.255219959958</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K19" t="n">
-        <v>1292.492818419394</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L19" t="n">
-        <v>1547.949588327959</v>
+        <v>479.2306226400792</v>
       </c>
       <c r="M19" t="n">
-        <v>1827.68205760893</v>
+        <v>758.9630919210504</v>
       </c>
       <c r="N19" t="n">
-        <v>2106.197730425064</v>
+        <v>1037.478764737185</v>
       </c>
       <c r="O19" t="n">
-        <v>2347.435737824208</v>
+        <v>1278.716772136328</v>
       </c>
       <c r="P19" t="n">
-        <v>2530.335846078876</v>
+        <v>1461.616880390996</v>
       </c>
       <c r="Q19" t="n">
-        <v>2573.531320421356</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="R19" t="n">
-        <v>2464.846039920233</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S19" t="n">
-        <v>2265.852291576652</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T19" t="n">
-        <v>2042.293972358963</v>
+        <v>1225.711449174762</v>
       </c>
       <c r="U19" t="n">
-        <v>1753.168232670302</v>
+        <v>936.5857094861011</v>
       </c>
       <c r="V19" t="n">
-        <v>1753.168232670302</v>
+        <v>681.9012212802143</v>
       </c>
       <c r="W19" t="n">
-        <v>1753.168232670302</v>
+        <v>681.9012212802143</v>
       </c>
       <c r="X19" t="n">
-        <v>1753.168232670302</v>
+        <v>453.9116703821969</v>
       </c>
       <c r="Y19" t="n">
-        <v>1532.375653526772</v>
+        <v>233.1190912386668</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1164.487094553833</v>
+        <v>1879.099448368351</v>
       </c>
       <c r="C20" t="n">
-        <v>795.5245776134218</v>
+        <v>1510.136931427939</v>
       </c>
       <c r="D20" t="n">
-        <v>437.2588790066713</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="E20" t="n">
-        <v>51.47062640842712</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="F20" t="n">
-        <v>51.47062640842712</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G20" t="n">
         <v>51.47062640842712</v>
@@ -5758,22 +5758,22 @@
         <v>379.856924397043</v>
       </c>
       <c r="L20" t="n">
-        <v>686.3028453818296</v>
+        <v>725.8066905067533</v>
       </c>
       <c r="M20" t="n">
-        <v>1058.95241572912</v>
+        <v>1362.755692311039</v>
       </c>
       <c r="N20" t="n">
-        <v>1695.901417533405</v>
+        <v>1746.048930678512</v>
       </c>
       <c r="O20" t="n">
-        <v>2044.499092359751</v>
+        <v>2094.646605504858</v>
       </c>
       <c r="P20" t="n">
-        <v>2307.518141872836</v>
+        <v>2357.665655017943</v>
       </c>
       <c r="Q20" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R20" t="n">
         <v>2573.531320421356</v>
@@ -5782,22 +5782,22 @@
         <v>2441.938092742883</v>
       </c>
       <c r="T20" t="n">
-        <v>2441.938092742883</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U20" t="n">
-        <v>2272.289153937338</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="V20" t="n">
-        <v>1941.226266593767</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="W20" t="n">
-        <v>1941.226266593767</v>
+        <v>1879.099448368351</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.226266593767</v>
+        <v>1879.099448368351</v>
       </c>
       <c r="Y20" t="n">
-        <v>1551.086934617955</v>
+        <v>1879.099448368351</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J21" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K21" t="n">
-        <v>404.360834447737</v>
+        <v>644.5860975745759</v>
       </c>
       <c r="L21" t="n">
-        <v>664.6173007890325</v>
+        <v>904.8425639158713</v>
       </c>
       <c r="M21" t="n">
-        <v>987.6811896771187</v>
+        <v>1227.906452803958</v>
       </c>
       <c r="N21" t="n">
-        <v>1624.630191481404</v>
+        <v>1759.278962343452</v>
       </c>
       <c r="O21" t="n">
-        <v>2261.57919328569</v>
+        <v>2053.602678427199</v>
       </c>
       <c r="P21" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q21" t="n">
         <v>2573.531320421356</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1351.643763990934</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="C22" t="n">
-        <v>1268.1026856787</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="D22" t="n">
-        <v>1268.1026856787</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="E22" t="n">
-        <v>1120.189592096307</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="F22" t="n">
-        <v>1120.189592096307</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="G22" t="n">
-        <v>1120.189592096307</v>
+        <v>80.91071768649383</v>
       </c>
       <c r="H22" t="n">
-        <v>1120.189592096307</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I22" t="n">
-        <v>1120.189592096307</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="J22" t="n">
-        <v>1136.255219959958</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K22" t="n">
-        <v>1292.492818419394</v>
+        <v>223.7738527315136</v>
       </c>
       <c r="L22" t="n">
-        <v>1547.949588327959</v>
+        <v>479.2306226400792</v>
       </c>
       <c r="M22" t="n">
-        <v>1827.68205760893</v>
+        <v>758.9630919210504</v>
       </c>
       <c r="N22" t="n">
-        <v>2106.197730425064</v>
+        <v>1037.478764737185</v>
       </c>
       <c r="O22" t="n">
-        <v>2347.435737824208</v>
+        <v>1278.716772136328</v>
       </c>
       <c r="P22" t="n">
-        <v>2530.335846078876</v>
+        <v>1461.616880390996</v>
       </c>
       <c r="Q22" t="n">
-        <v>2573.531320421356</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="R22" t="n">
-        <v>2573.531320421356</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S22" t="n">
-        <v>2374.537572077775</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T22" t="n">
-        <v>2150.979252860086</v>
+        <v>1082.260287172206</v>
       </c>
       <c r="U22" t="n">
-        <v>1861.853513171425</v>
+        <v>793.134547483545</v>
       </c>
       <c r="V22" t="n">
-        <v>1861.853513171425</v>
+        <v>538.4500592776582</v>
       </c>
       <c r="W22" t="n">
-        <v>1572.436343134464</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="X22" t="n">
-        <v>1572.436343134464</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="Y22" t="n">
-        <v>1351.643763990934</v>
+        <v>249.0328892406976</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2422.235077657112</v>
+        <v>2422.235077657113</v>
       </c>
       <c r="C23" t="n">
-        <v>2053.2725607167</v>
+        <v>2053.272560716701</v>
       </c>
       <c r="D23" t="n">
-        <v>1695.00686210995</v>
+        <v>1695.006862109951</v>
       </c>
       <c r="E23" t="n">
-        <v>1309.218609511706</v>
+        <v>1309.218609511707</v>
       </c>
       <c r="F23" t="n">
-        <v>898.2327047220988</v>
+        <v>898.2327047220992</v>
       </c>
       <c r="G23" t="n">
-        <v>482.2254192755728</v>
+        <v>482.2254192755729</v>
       </c>
       <c r="H23" t="n">
-        <v>175.0679369550354</v>
+        <v>175.0679369550356</v>
       </c>
       <c r="I23" t="n">
         <v>97.03080061808376</v>
@@ -6004,7 +6004,7 @@
         <v>3267.59189150277</v>
       </c>
       <c r="O23" t="n">
-        <v>3993.181745779234</v>
+        <v>3843.882754144616</v>
       </c>
       <c r="P23" t="n">
         <v>4425.482524747469</v>
@@ -6022,19 +6022,19 @@
         <v>4509.876814121297</v>
       </c>
       <c r="U23" t="n">
-        <v>4256.271550571811</v>
+        <v>4256.271550571812</v>
       </c>
       <c r="V23" t="n">
-        <v>3925.20866322824</v>
+        <v>3925.208663228241</v>
       </c>
       <c r="W23" t="n">
         <v>3572.440007958126</v>
       </c>
       <c r="X23" t="n">
-        <v>3198.974249697046</v>
+        <v>3198.974249697047</v>
       </c>
       <c r="Y23" t="n">
-        <v>2808.834917721234</v>
+        <v>2808.834917721235</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>690.1462717842325</v>
       </c>
       <c r="L24" t="n">
-        <v>1317.534679975952</v>
+        <v>950.402738125528</v>
       </c>
       <c r="M24" t="n">
-        <v>1640.598568864039</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N24" t="n">
-        <v>1986.621642500136</v>
+        <v>1804.839136553109</v>
       </c>
       <c r="O24" t="n">
-        <v>2280.945358583883</v>
+        <v>2099.162852636856</v>
       </c>
       <c r="P24" t="n">
-        <v>2497.833022534979</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q24" t="n">
         <v>2619.091494631013</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3936.414928024068</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="C25" t="n">
-        <v>3767.478745096161</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="D25" t="n">
-        <v>3696.056851675369</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="E25" t="n">
-        <v>3548.143758092976</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F25" t="n">
-        <v>3548.143758092976</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G25" t="n">
-        <v>3548.143758092976</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H25" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I25" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J25" t="n">
-        <v>3414.263930442789</v>
+        <v>113.0964284817345</v>
       </c>
       <c r="K25" t="n">
-        <v>3570.501528902225</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L25" t="n">
-        <v>3825.958298810791</v>
+        <v>524.7907968497359</v>
       </c>
       <c r="M25" t="n">
-        <v>4105.690768091762</v>
+        <v>804.523266130707</v>
       </c>
       <c r="N25" t="n">
-        <v>4384.206440907897</v>
+        <v>1083.038938946841</v>
       </c>
       <c r="O25" t="n">
-        <v>4625.44444830704</v>
+        <v>1324.276946345985</v>
       </c>
       <c r="P25" t="n">
-        <v>4808.344556561708</v>
+        <v>1507.177054600652</v>
       </c>
       <c r="Q25" t="n">
-        <v>4851.540030904188</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="R25" t="n">
-        <v>4851.540030904188</v>
+        <v>1441.68724844201</v>
       </c>
       <c r="S25" t="n">
-        <v>4851.540030904188</v>
+        <v>1242.693500098429</v>
       </c>
       <c r="T25" t="n">
-        <v>4627.981711686499</v>
+        <v>1019.13518088074</v>
       </c>
       <c r="U25" t="n">
-        <v>4338.855971997838</v>
+        <v>730.0094411920786</v>
       </c>
       <c r="V25" t="n">
-        <v>4338.855971997838</v>
+        <v>614.4375215530617</v>
       </c>
       <c r="W25" t="n">
-        <v>4338.855971997838</v>
+        <v>325.0203515161011</v>
       </c>
       <c r="X25" t="n">
-        <v>4338.855971997838</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="Y25" t="n">
-        <v>4118.063392854307</v>
+        <v>97.03080061808376</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2422.235077657111</v>
+        <v>2422.235077657112</v>
       </c>
       <c r="C26" t="n">
-        <v>2053.272560716699</v>
+        <v>2053.2725607167</v>
       </c>
       <c r="D26" t="n">
-        <v>1695.006862109949</v>
+        <v>1695.00686210995</v>
       </c>
       <c r="E26" t="n">
-        <v>1309.218609511705</v>
+        <v>1309.218609511706</v>
       </c>
       <c r="F26" t="n">
-        <v>898.2327047220983</v>
+        <v>898.2327047220988</v>
       </c>
       <c r="G26" t="n">
-        <v>482.2254192755727</v>
+        <v>482.2254192755728</v>
       </c>
       <c r="H26" t="n">
-        <v>175.0679369550356</v>
+        <v>175.0679369550354</v>
       </c>
       <c r="I26" t="n">
         <v>97.03080061808376</v>
@@ -6232,46 +6232,46 @@
         <v>913.7267060725057</v>
       </c>
       <c r="L26" t="n">
-        <v>1549.417493501874</v>
+        <v>1633.657229462238</v>
       </c>
       <c r="M26" t="n">
-        <v>2367.085462007068</v>
+        <v>2302.026206332815</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.352155542405</v>
+        <v>3118.292899868152</v>
       </c>
       <c r="O26" t="n">
-        <v>3908.942009818869</v>
+        <v>3843.882754144616</v>
       </c>
       <c r="P26" t="n">
-        <v>4490.541780421722</v>
+        <v>4425.482524747469</v>
       </c>
       <c r="Q26" t="n">
-        <v>4850.077227065601</v>
+        <v>4785.017971391348</v>
       </c>
       <c r="R26" t="n">
         <v>4851.540030904188</v>
       </c>
       <c r="S26" t="n">
-        <v>4719.946803225714</v>
+        <v>4719.946803225715</v>
       </c>
       <c r="T26" t="n">
-        <v>4509.876814121296</v>
+        <v>4509.876814121297</v>
       </c>
       <c r="U26" t="n">
-        <v>4256.27155057181</v>
+        <v>4256.271550571811</v>
       </c>
       <c r="V26" t="n">
-        <v>3925.208663228239</v>
+        <v>3925.20866322824</v>
       </c>
       <c r="W26" t="n">
-        <v>3572.440007958125</v>
+        <v>3572.440007958126</v>
       </c>
       <c r="X26" t="n">
-        <v>3198.974249697045</v>
+        <v>3198.974249697046</v>
       </c>
       <c r="Y26" t="n">
-        <v>2808.834917721233</v>
+        <v>2808.834917721234</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>269.2224587087292</v>
       </c>
       <c r="K27" t="n">
-        <v>428.3256871417797</v>
+        <v>690.1462717842325</v>
       </c>
       <c r="L27" t="n">
-        <v>688.5821534830752</v>
+        <v>1135.752174028925</v>
       </c>
       <c r="M27" t="n">
-        <v>1472.694055483661</v>
+        <v>1458.816062917011</v>
       </c>
       <c r="N27" t="n">
-        <v>1818.717129119759</v>
+        <v>1804.839136553109</v>
       </c>
       <c r="O27" t="n">
-        <v>2113.040845203506</v>
+        <v>2099.162852636856</v>
       </c>
       <c r="P27" t="n">
-        <v>2524.027031446442</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q27" t="n">
         <v>2619.091494631013</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3546.111396161532</v>
+        <v>557.7801710070373</v>
       </c>
       <c r="C28" t="n">
-        <v>3546.111396161532</v>
+        <v>395.0605336128126</v>
       </c>
       <c r="D28" t="n">
-        <v>3546.111396161532</v>
+        <v>244.9438942004769</v>
       </c>
       <c r="E28" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F28" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H28" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I28" t="n">
-        <v>3398.198302579139</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J28" t="n">
-        <v>3414.263930442789</v>
+        <v>113.0964284817345</v>
       </c>
       <c r="K28" t="n">
-        <v>3570.501528902225</v>
+        <v>269.3340269411702</v>
       </c>
       <c r="L28" t="n">
-        <v>3825.958298810791</v>
+        <v>524.7907968497359</v>
       </c>
       <c r="M28" t="n">
-        <v>4105.690768091762</v>
+        <v>804.523266130707</v>
       </c>
       <c r="N28" t="n">
-        <v>4384.206440907897</v>
+        <v>1083.038938946841</v>
       </c>
       <c r="O28" t="n">
-        <v>4625.44444830704</v>
+        <v>1324.276946345985</v>
       </c>
       <c r="P28" t="n">
-        <v>4808.344556561708</v>
+        <v>1507.177054600652</v>
       </c>
       <c r="Q28" t="n">
-        <v>4851.540030904188</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="R28" t="n">
-        <v>4851.540030904188</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="S28" t="n">
-        <v>4652.546282560607</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="T28" t="n">
-        <v>4428.987963342918</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="U28" t="n">
-        <v>4139.862223654257</v>
+        <v>1261.246789254472</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.862223654257</v>
+        <v>1006.562301048585</v>
       </c>
       <c r="W28" t="n">
-        <v>3955.749411889789</v>
+        <v>1006.562301048585</v>
       </c>
       <c r="X28" t="n">
-        <v>3727.759860991772</v>
+        <v>778.5727501505675</v>
       </c>
       <c r="Y28" t="n">
-        <v>3727.759860991772</v>
+        <v>557.7801710070373</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>1633.657229462238</v>
       </c>
       <c r="M29" t="n">
-        <v>2367.085462007068</v>
+        <v>2451.325197967432</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.352155542405</v>
+        <v>3267.59189150277</v>
       </c>
       <c r="O29" t="n">
-        <v>3908.942009818869</v>
+        <v>3993.181745779234</v>
       </c>
       <c r="P29" t="n">
-        <v>4490.541780421722</v>
+        <v>4425.482524747469</v>
       </c>
       <c r="Q29" t="n">
-        <v>4850.077227065601</v>
+        <v>4785.017971391348</v>
       </c>
       <c r="R29" t="n">
         <v>4851.540030904188</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3216.835067005264</v>
+        <v>984.3865307320895</v>
       </c>
       <c r="C30" t="n">
-        <v>3042.382037724137</v>
+        <v>809.9335014509625</v>
       </c>
       <c r="D30" t="n">
-        <v>2893.447628062886</v>
+        <v>660.9990917897112</v>
       </c>
       <c r="E30" t="n">
-        <v>2734.21017305743</v>
+        <v>501.7616367842558</v>
       </c>
       <c r="F30" t="n">
-        <v>2587.675615084315</v>
+        <v>355.2270788111407</v>
       </c>
       <c r="G30" t="n">
-        <v>2450.812333939964</v>
+        <v>218.36379766679</v>
       </c>
       <c r="H30" t="n">
-        <v>2355.479744352896</v>
+        <v>123.0312080797215</v>
       </c>
       <c r="I30" t="n">
-        <v>2329.479336891258</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="J30" t="n">
-        <v>2501.670994981904</v>
+        <v>144.3923337217245</v>
       </c>
       <c r="K30" t="n">
-        <v>2922.594808057407</v>
+        <v>401.0621397421581</v>
       </c>
       <c r="L30" t="n">
-        <v>3549.983216249127</v>
+        <v>1028.450547933878</v>
       </c>
       <c r="M30" t="n">
-        <v>3899.241114048677</v>
+        <v>1351.514436821964</v>
       </c>
       <c r="N30" t="n">
-        <v>4245.264187684775</v>
+        <v>1697.537510458062</v>
       </c>
       <c r="O30" t="n">
-        <v>4539.587903768522</v>
+        <v>1991.861226541809</v>
       </c>
       <c r="P30" t="n">
-        <v>4756.475567719617</v>
+        <v>2524.027031446442</v>
       </c>
       <c r="Q30" t="n">
-        <v>4851.540030904188</v>
+        <v>2619.091494631013</v>
       </c>
       <c r="R30" t="n">
-        <v>4851.540030904188</v>
+        <v>2619.091494631013</v>
       </c>
       <c r="S30" t="n">
-        <v>4712.811502128093</v>
+        <v>2480.362965854918</v>
       </c>
       <c r="T30" t="n">
-        <v>4518.15242146457</v>
+        <v>2285.703885191394</v>
       </c>
       <c r="U30" t="n">
-        <v>4290.051667955763</v>
+        <v>2057.603131682588</v>
       </c>
       <c r="V30" t="n">
-        <v>4054.89955972402</v>
+        <v>1822.451023450846</v>
       </c>
       <c r="W30" t="n">
-        <v>3800.662202995819</v>
+        <v>1568.213666722644</v>
       </c>
       <c r="X30" t="n">
-        <v>3592.810702790286</v>
+        <v>1360.362166517111</v>
       </c>
       <c r="Y30" t="n">
-        <v>3385.050404025332</v>
+        <v>1152.601867752157</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>544.0253772352695</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="C31" t="n">
-        <v>375.0891943073626</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="D31" t="n">
-        <v>375.0891943073626</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="E31" t="n">
-        <v>375.0891943073626</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F31" t="n">
-        <v>375.0891943073626</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G31" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H31" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I31" t="n">
         <v>97.03080061808376</v>
@@ -6645,28 +6645,28 @@
         <v>1550.372528943133</v>
       </c>
       <c r="R31" t="n">
-        <v>1532.206302689149</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="S31" t="n">
-        <v>1532.206302689149</v>
+        <v>1381.806068665299</v>
       </c>
       <c r="T31" t="n">
-        <v>1532.206302689149</v>
+        <v>1158.24774944761</v>
       </c>
       <c r="U31" t="n">
-        <v>1243.080563000487</v>
+        <v>869.1220097589486</v>
       </c>
       <c r="V31" t="n">
-        <v>1243.080563000487</v>
+        <v>614.4375215530617</v>
       </c>
       <c r="W31" t="n">
-        <v>953.6633929635266</v>
+        <v>325.0203515161011</v>
       </c>
       <c r="X31" t="n">
-        <v>725.6738420655092</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="Y31" t="n">
-        <v>725.6738420655092</v>
+        <v>97.03080061808376</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J32" t="n">
-        <v>375.5515290124006</v>
+        <v>291.3117930520365</v>
       </c>
       <c r="K32" t="n">
-        <v>913.7267060725057</v>
+        <v>829.4869701121416</v>
       </c>
       <c r="L32" t="n">
-        <v>1633.657229462238</v>
+        <v>1549.417493501874</v>
       </c>
       <c r="M32" t="n">
-        <v>2451.325197967432</v>
+        <v>2367.085462007068</v>
       </c>
       <c r="N32" t="n">
-        <v>3267.59189150277</v>
+        <v>3183.352155542405</v>
       </c>
       <c r="O32" t="n">
-        <v>3993.181745779234</v>
+        <v>3908.942009818869</v>
       </c>
       <c r="P32" t="n">
         <v>4490.541780421722</v>
@@ -6782,22 +6782,22 @@
         <v>144.3923337217245</v>
       </c>
       <c r="K33" t="n">
-        <v>303.4955621547749</v>
+        <v>560.2175667340921</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7520284960704</v>
+        <v>820.4740330753875</v>
       </c>
       <c r="M33" t="n">
-        <v>886.8159173841566</v>
+        <v>1143.537921963474</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.6138143741</v>
+        <v>1489.560995599571</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.861226541809</v>
+        <v>1783.884711683318</v>
       </c>
       <c r="P33" t="n">
-        <v>2524.027031446442</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q33" t="n">
         <v>2619.091494631013</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>412.0429196701979</v>
+        <v>988.9450577279088</v>
       </c>
       <c r="C34" t="n">
-        <v>412.0429196701979</v>
+        <v>820.0088748000019</v>
       </c>
       <c r="D34" t="n">
-        <v>412.0429196701979</v>
+        <v>669.8922353876661</v>
       </c>
       <c r="E34" t="n">
-        <v>412.0429196701979</v>
+        <v>521.979141805273</v>
       </c>
       <c r="F34" t="n">
-        <v>265.1529721722875</v>
+        <v>375.0891943073626</v>
       </c>
       <c r="G34" t="n">
-        <v>97.03080061808376</v>
+        <v>206.9670227531589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.03080061808376</v>
+        <v>206.9670227531589</v>
       </c>
       <c r="I34" t="n">
         <v>97.03080061808376</v>
@@ -6885,25 +6885,25 @@
         <v>1550.372528943133</v>
       </c>
       <c r="S34" t="n">
-        <v>1550.372528943133</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.814209725444</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="U34" t="n">
-        <v>1326.814209725444</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="V34" t="n">
-        <v>1111.098105435416</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="W34" t="n">
-        <v>821.6809353984549</v>
+        <v>1351.378780599552</v>
       </c>
       <c r="X34" t="n">
-        <v>593.6913845004376</v>
+        <v>1123.389229701535</v>
       </c>
       <c r="Y34" t="n">
-        <v>593.6913845004376</v>
+        <v>988.9450577279088</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1164.487094553833</v>
+        <v>1329.103839147567</v>
       </c>
       <c r="C35" t="n">
-        <v>795.5245776134218</v>
+        <v>1329.103839147567</v>
       </c>
       <c r="D35" t="n">
-        <v>437.2588790066713</v>
+        <v>1185.621298965098</v>
       </c>
       <c r="E35" t="n">
-        <v>51.47062640842712</v>
+        <v>1185.621298965098</v>
       </c>
       <c r="F35" t="n">
-        <v>51.47062640842712</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="G35" t="n">
-        <v>51.47062640842712</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="H35" t="n">
         <v>51.47062640842712</v>
@@ -6937,25 +6937,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J35" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K35" t="n">
-        <v>379.856924397043</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L35" t="n">
-        <v>686.3028453818296</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M35" t="n">
-        <v>1058.95241572912</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N35" t="n">
-        <v>1442.245654096593</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O35" t="n">
-        <v>1841.125140089342</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P35" t="n">
-        <v>2422.724910692195</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q35" t="n">
         <v>2572.068516582769</v>
@@ -6970,19 +6970,19 @@
         <v>2441.938092742882</v>
       </c>
       <c r="U35" t="n">
-        <v>2188.332829193397</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="V35" t="n">
-        <v>2188.332829193397</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="W35" t="n">
-        <v>2188.332829193397</v>
+        <v>2089.169437472768</v>
       </c>
       <c r="X35" t="n">
-        <v>1814.867070932317</v>
+        <v>1715.703679211688</v>
       </c>
       <c r="Y35" t="n">
-        <v>1424.727738956506</v>
+        <v>1715.703679211688</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>938.8263565224324</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C36" t="n">
-        <v>764.3733272413054</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D36" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E36" t="n">
-        <v>456.2014625745985</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F36" t="n">
-        <v>309.6669046014836</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G36" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H36" t="n">
-        <v>77.47103387006473</v>
+        <v>77.47103387006487</v>
       </c>
       <c r="I36" t="n">
         <v>51.47062640842712</v>
@@ -7019,22 +7019,22 @@
         <v>98.83215951206782</v>
       </c>
       <c r="K36" t="n">
-        <v>519.755972587571</v>
+        <v>257.9353879451182</v>
       </c>
       <c r="L36" t="n">
-        <v>1090.191999819268</v>
+        <v>518.1918542864137</v>
       </c>
       <c r="M36" t="n">
-        <v>1413.255888707354</v>
+        <v>841.2557431744999</v>
       </c>
       <c r="N36" t="n">
-        <v>1759.278962343452</v>
+        <v>1309.352050527867</v>
       </c>
       <c r="O36" t="n">
-        <v>2053.602678427199</v>
+        <v>1946.301052332152</v>
       </c>
       <c r="P36" t="n">
-        <v>2270.490342378294</v>
+        <v>2478.466857236785</v>
       </c>
       <c r="Q36" t="n">
         <v>2573.531320421356</v>
@@ -7043,13 +7043,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T36" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U36" t="n">
-        <v>2012.042957472931</v>
+        <v>2012.042957472932</v>
       </c>
       <c r="V36" t="n">
         <v>1776.890849241189</v>
@@ -7058,7 +7058,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X36" t="n">
-        <v>1314.801992307454</v>
+        <v>1314.801992307455</v>
       </c>
       <c r="Y36" t="n">
         <v>1107.041693542501</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349.5003594031559</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="C37" t="n">
-        <v>349.5003594031559</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="D37" t="n">
-        <v>199.3837199908202</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="E37" t="n">
-        <v>51.47062640842712</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47062640842712</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="G37" t="n">
-        <v>51.47062640842712</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="H37" t="n">
-        <v>51.47062640842712</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="I37" t="n">
         <v>51.47062640842712</v>
@@ -7122,25 +7122,25 @@
         <v>1396.127074232353</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.127074232353</v>
+        <v>1197.133325888772</v>
       </c>
       <c r="T37" t="n">
-        <v>1172.568755014664</v>
+        <v>973.5750066710832</v>
       </c>
       <c r="U37" t="n">
-        <v>1172.568755014664</v>
+        <v>684.4492669824219</v>
       </c>
       <c r="V37" t="n">
-        <v>1172.568755014664</v>
+        <v>429.7647787765351</v>
       </c>
       <c r="W37" t="n">
-        <v>979.9309542749431</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="X37" t="n">
-        <v>751.9414033769258</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.1488242333957</v>
+        <v>161.4068485435022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2007.712386507045</v>
+        <v>1504.501286579712</v>
       </c>
       <c r="C38" t="n">
-        <v>2007.712386507045</v>
+        <v>1206.510482403029</v>
       </c>
       <c r="D38" t="n">
-        <v>1649.446687900294</v>
+        <v>848.2447837962789</v>
       </c>
       <c r="E38" t="n">
-        <v>1263.65843530205</v>
+        <v>462.4565311980347</v>
       </c>
       <c r="F38" t="n">
-        <v>852.6725305124423</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G38" t="n">
-        <v>436.6652450659163</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H38" t="n">
-        <v>129.5077627453789</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I38" t="n">
         <v>51.47062640842712</v>
@@ -7195,7 +7195,7 @@
         <v>2318.161809893019</v>
       </c>
       <c r="Q38" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R38" t="n">
         <v>2573.531320421356</v>
@@ -7207,19 +7207,19 @@
         <v>2441.938092742882</v>
       </c>
       <c r="U38" t="n">
-        <v>2441.938092742882</v>
+        <v>2188.332829193397</v>
       </c>
       <c r="V38" t="n">
-        <v>2441.938092742882</v>
+        <v>1857.269941849826</v>
       </c>
       <c r="W38" t="n">
-        <v>2089.169437472768</v>
+        <v>1504.501286579712</v>
       </c>
       <c r="X38" t="n">
-        <v>2007.712386507045</v>
+        <v>1504.501286579712</v>
       </c>
       <c r="Y38" t="n">
-        <v>2007.712386507045</v>
+        <v>1504.501286579712</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C39" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D39" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E39" t="n">
-        <v>456.2014625745991</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F39" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G39" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H39" t="n">
         <v>77.47103387006487</v>
@@ -7253,25 +7253,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J39" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K39" t="n">
-        <v>328.1548207655006</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L39" t="n">
-        <v>955.5432289572207</v>
+        <v>1090.191999819268</v>
       </c>
       <c r="M39" t="n">
-        <v>1278.607117845307</v>
+        <v>1413.255888707354</v>
       </c>
       <c r="N39" t="n">
-        <v>1624.630191481404</v>
+        <v>1759.278962343452</v>
       </c>
       <c r="O39" t="n">
-        <v>2261.57919328569</v>
+        <v>2053.602678427199</v>
       </c>
       <c r="P39" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378294</v>
       </c>
       <c r="Q39" t="n">
         <v>2573.531320421356</v>
@@ -7280,13 +7280,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T39" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U39" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V39" t="n">
         <v>1776.890849241189</v>
@@ -7295,7 +7295,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X39" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y39" t="n">
         <v>1107.041693542501</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>777.5042086062715</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C40" t="n">
-        <v>777.5042086062715</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D40" t="n">
-        <v>627.3875691939357</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E40" t="n">
-        <v>479.4744756115426</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F40" t="n">
-        <v>479.4744756115426</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G40" t="n">
-        <v>311.3523040573389</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H40" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I40" t="n">
         <v>51.47062640842712</v>
@@ -7356,28 +7356,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.182015856203</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S40" t="n">
-        <v>1290.188267512622</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="T40" t="n">
-        <v>1066.629948294933</v>
+        <v>1082.260287172206</v>
       </c>
       <c r="U40" t="n">
-        <v>777.5042086062715</v>
+        <v>793.134547483545</v>
       </c>
       <c r="V40" t="n">
-        <v>777.5042086062715</v>
+        <v>538.4500592776582</v>
       </c>
       <c r="W40" t="n">
-        <v>777.5042086062715</v>
+        <v>249.0328892406976</v>
       </c>
       <c r="X40" t="n">
-        <v>777.5042086062715</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="Y40" t="n">
-        <v>777.5042086062715</v>
+        <v>51.47062640842712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>926.2819201332306</v>
+        <v>1423.326390120342</v>
       </c>
       <c r="C41" t="n">
-        <v>926.2819201332306</v>
+        <v>1423.326390120342</v>
       </c>
       <c r="D41" t="n">
-        <v>926.2819201332306</v>
+        <v>1423.326390120342</v>
       </c>
       <c r="E41" t="n">
-        <v>540.4936675349865</v>
+        <v>1037.538137522098</v>
       </c>
       <c r="F41" t="n">
-        <v>129.5077627453789</v>
+        <v>626.5522327324907</v>
       </c>
       <c r="G41" t="n">
-        <v>129.5077627453789</v>
+        <v>210.5449472859647</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5077627453789</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I41" t="n">
         <v>51.47062640842712</v>
@@ -7414,16 +7414,16 @@
         <v>162.585705782391</v>
       </c>
       <c r="K41" t="n">
-        <v>379.856924397043</v>
+        <v>700.7608828424961</v>
       </c>
       <c r="L41" t="n">
-        <v>686.3028453818296</v>
+        <v>1007.206803827283</v>
       </c>
       <c r="M41" t="n">
-        <v>1174.159184548479</v>
+        <v>1379.856374174573</v>
       </c>
       <c r="N41" t="n">
-        <v>1811.108186352764</v>
+        <v>1763.149612542046</v>
       </c>
       <c r="O41" t="n">
         <v>2159.70586117911</v>
@@ -7444,19 +7444,19 @@
         <v>2573.531320421356</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.926056871871</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="V41" t="n">
-        <v>1988.8631695283</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="W41" t="n">
-        <v>1689.887010370122</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="X41" t="n">
-        <v>1316.421252109042</v>
+        <v>2200.065562160276</v>
       </c>
       <c r="Y41" t="n">
-        <v>926.2819201332306</v>
+        <v>1809.926230184464</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J42" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K42" t="n">
-        <v>257.9353879451182</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L42" t="n">
-        <v>518.1918542864137</v>
+        <v>1090.191999819269</v>
       </c>
       <c r="M42" t="n">
-        <v>1155.140856090699</v>
+        <v>1413.255888707355</v>
       </c>
       <c r="N42" t="n">
-        <v>1792.089857894985</v>
+        <v>1759.278962343452</v>
       </c>
       <c r="O42" t="n">
-        <v>2261.57919328569</v>
+        <v>2053.602678427199</v>
       </c>
       <c r="P42" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q42" t="n">
         <v>2573.531320421356</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.8003728526458</v>
+        <v>198.3605739063375</v>
       </c>
       <c r="C43" t="n">
-        <v>606.1553451376424</v>
+        <v>198.3605739063375</v>
       </c>
       <c r="D43" t="n">
-        <v>606.1553451376424</v>
+        <v>198.3605739063375</v>
       </c>
       <c r="E43" t="n">
-        <v>458.2422515552493</v>
+        <v>198.3605739063375</v>
       </c>
       <c r="F43" t="n">
-        <v>311.3523040573389</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G43" t="n">
-        <v>311.3523040573389</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H43" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I43" t="n">
         <v>51.47062640842712</v>
@@ -7593,28 +7593,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R43" t="n">
-        <v>1396.127074232353</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="S43" t="n">
-        <v>1197.133325888772</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T43" t="n">
-        <v>1197.133325888772</v>
+        <v>1281.254035515787</v>
       </c>
       <c r="U43" t="n">
-        <v>1197.133325888772</v>
+        <v>992.1282958271258</v>
       </c>
       <c r="V43" t="n">
-        <v>942.4488376828855</v>
+        <v>737.443807621239</v>
       </c>
       <c r="W43" t="n">
-        <v>942.4488376828855</v>
+        <v>448.0266375842784</v>
       </c>
       <c r="X43" t="n">
-        <v>942.4488376828855</v>
+        <v>448.0266375842784</v>
       </c>
       <c r="Y43" t="n">
-        <v>942.4488376828855</v>
+        <v>227.2340584407483</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1471.644576874371</v>
+        <v>1291.733162441869</v>
       </c>
       <c r="C44" t="n">
-        <v>1102.682059933959</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="D44" t="n">
-        <v>744.4163613272087</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="E44" t="n">
-        <v>358.6281087289645</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="F44" t="n">
-        <v>358.6281087289645</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G44" t="n">
-        <v>358.6281087289645</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H44" t="n">
         <v>51.47062640842712</v>
@@ -7648,25 +7648,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J44" t="n">
-        <v>162.585705782391</v>
+        <v>321.2563972852573</v>
       </c>
       <c r="K44" t="n">
-        <v>484.4200251962191</v>
+        <v>538.5276158999094</v>
       </c>
       <c r="L44" t="n">
-        <v>790.8659461810056</v>
+        <v>844.9735368846959</v>
       </c>
       <c r="M44" t="n">
-        <v>1427.814947985291</v>
+        <v>1217.623107231986</v>
       </c>
       <c r="N44" t="n">
-        <v>1811.108186352764</v>
+        <v>1600.916345599459</v>
       </c>
       <c r="O44" t="n">
-        <v>2159.70586117911</v>
+        <v>1949.514020425805</v>
       </c>
       <c r="P44" t="n">
-        <v>2422.724910692195</v>
+        <v>2212.53306993889</v>
       </c>
       <c r="Q44" t="n">
         <v>2572.068516582769</v>
@@ -7675,25 +7675,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S44" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T44" t="n">
-        <v>2363.461331316938</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="U44" t="n">
-        <v>2155.476119488056</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="V44" t="n">
-        <v>1824.413232144485</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="W44" t="n">
-        <v>1471.644576874371</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="X44" t="n">
-        <v>1471.644576874371</v>
+        <v>2068.472334481803</v>
       </c>
       <c r="Y44" t="n">
-        <v>1471.644576874371</v>
+        <v>1678.333002505991</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>938.8263565224324</v>
+        <v>938.8263565224328</v>
       </c>
       <c r="C45" t="n">
-        <v>764.3733272413054</v>
+        <v>764.3733272413058</v>
       </c>
       <c r="D45" t="n">
-        <v>615.4389175800542</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E45" t="n">
-        <v>456.2014625745987</v>
+        <v>456.2014625745991</v>
       </c>
       <c r="F45" t="n">
-        <v>309.6669046014837</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G45" t="n">
-        <v>172.8036234571329</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H45" t="n">
-        <v>77.4710338700645</v>
+        <v>77.47103387006487</v>
       </c>
       <c r="I45" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J45" t="n">
-        <v>223.6622844990726</v>
+        <v>98.83215951206782</v>
       </c>
       <c r="K45" t="n">
-        <v>382.765512932123</v>
+        <v>514.6573925244356</v>
       </c>
       <c r="L45" t="n">
-        <v>1010.153921123843</v>
+        <v>774.9138588657311</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.217810011929</v>
+        <v>1097.977747753817</v>
       </c>
       <c r="N45" t="n">
-        <v>1679.240883648027</v>
+        <v>1444.000821389915</v>
       </c>
       <c r="O45" t="n">
-        <v>1973.564599731774</v>
+        <v>1738.324537473662</v>
       </c>
       <c r="P45" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q45" t="n">
         <v>2573.531320421356</v>
@@ -7754,13 +7754,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T45" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U45" t="n">
-        <v>2012.042957472931</v>
+        <v>2012.042957472932</v>
       </c>
       <c r="V45" t="n">
         <v>1776.890849241189</v>
@@ -7769,7 +7769,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X45" t="n">
-        <v>1314.801992307454</v>
+        <v>1314.801992307455</v>
       </c>
       <c r="Y45" t="n">
         <v>1107.041693542501</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3941168970136</v>
+        <v>517.4513470588606</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4579339691068</v>
+        <v>517.4513470588606</v>
       </c>
       <c r="D46" t="n">
-        <v>664.341294556771</v>
+        <v>517.4513470588606</v>
       </c>
       <c r="E46" t="n">
-        <v>516.4282009743779</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="F46" t="n">
         <v>369.5382534764675</v>
@@ -7836,22 +7836,22 @@
         <v>1504.812354733476</v>
       </c>
       <c r="T46" t="n">
-        <v>1281.254035515787</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="U46" t="n">
-        <v>1238.078605102901</v>
+        <v>1215.686615044815</v>
       </c>
       <c r="V46" t="n">
-        <v>983.3941168970136</v>
+        <v>1034.858067993839</v>
       </c>
       <c r="W46" t="n">
-        <v>983.3941168970136</v>
+        <v>745.440897956878</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3941168970136</v>
+        <v>517.4513470588606</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3941168970136</v>
+        <v>517.4513470588606</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
-        <v>146.6444495984684</v>
+        <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>251.0691524851223</v>
@@ -8227,10 +8227,10 @@
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M6" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>333.8414957772719</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>38.7469206431042</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>203.4918012483018</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>317.0556696123226</v>
       </c>
       <c r="N12" t="n">
-        <v>206.9375794772022</v>
+        <v>293.8645739072606</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>176.9349689969271</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>30.88745500881014</v>
+        <v>30.88745500881012</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>160.2734257604715</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>160.2734257604714</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>317.0556696123226</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>206.3343058916094</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>30.88745500881014</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>291.2639666443836</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>81.32444977599232</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>137.7753813753198</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>259.3151561407246</v>
       </c>
       <c r="L18" t="n">
-        <v>177.3038283114689</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>346.0861471924632</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>30.88745500881014</v>
@@ -9406,13 +9406,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.90287386355931</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>266.969122683834</v>
       </c>
       <c r="N20" t="n">
-        <v>256.2179428654673</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.370473554909</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>147.9044914167866</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>293.8645739072606</v>
+        <v>187.2216524276739</v>
       </c>
       <c r="O21" t="n">
-        <v>346.0861471924632</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>30.88745500881014</v>
@@ -9652,10 +9652,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>229.9931190055563</v>
       </c>
       <c r="P23" t="n">
-        <v>170.9916459142935</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>187.2216524276737</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.45859486006381</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>30.88745500881014</v>
@@ -9880,10 +9880,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>332.5705721662443</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>298.7064712356432</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>187.2216524276739</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>196.0591134261015</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>30.88745500881014</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>364.4228911086261</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,13 +10129,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>170.9916459142935</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>98.55209857311439</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>26.4585948600643</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>84.00597278786756</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>236.7080657872764</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259.3151561407244</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>75.53012459984382</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>30.88745500881014</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>50.78970824889279</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>203.4918012483018</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>313.3126877680825</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>123.3062966841107</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>346.086147192463</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>30.88745500881014</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>105.6192937365416</v>
+        <v>39.90287386355914</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>70.92872002058826</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>187.2216524276736</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>346.086147192463</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>30.88745500881014</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>116.3704735549081</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>256.2179428654671</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>48.4430038492107</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>187.2216524276741</v>
       </c>
       <c r="M42" t="n">
-        <v>317.0556696123225</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>293.8645739072606</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>176.9349689969272</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>30.88745500881014</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.2734257604711</v>
       </c>
       <c r="K44" t="n">
-        <v>105.6192937365415</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>266.9691226838339</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>259.3151561407246</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>290.9238318726424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>30.88745500881014</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.5831730798696</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.8059716434256</v>
       </c>
     </row>
     <row r="12">
@@ -23421,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8368599137244</v>
+        <v>108.8368599137243</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.5984276961118</v>
+        <v>70.07161394152121</v>
       </c>
       <c r="S13" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.1686399897261</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>97.58554471928784</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>304.0859074973321</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T14" t="n">
         <v>207.9692892133734</v>
@@ -23554,16 +23554,16 @@
         <v>251.0692109139906</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>363.1303703564873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>107.6624369267246</v>
+        <v>339.2659671269564</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4409498386617</v>
@@ -23910,7 +23910,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I19" t="n">
-        <v>26.02568730243298</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>142.0166503825306</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>111.2570280574</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>304.0859074973321</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>83.11676149650083</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>84.54115356951635</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.4460009586983</v>
+        <v>119.3003105934122</v>
       </c>
       <c r="I22" t="n">
         <v>108.8368599137244</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>77.90779853162827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4409498386617</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I25" t="n">
         <v>108.8368599137244</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>137.7214428812013</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>6.154380078345383</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>104.2513146897682</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H31" t="n">
         <v>148.4460009586983</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.61386370466728</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S31" t="n">
-        <v>197.003810860145</v>
+        <v>30.12301518508957</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I34" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S34" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U34" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V34" t="n">
-        <v>38.57870007670013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.48492309820506</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.0956037048351</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.6353268400392</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>77.25676497358228</v>
@@ -25210,19 +25210,19 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I37" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>95.81157560426735</v>
+        <v>20.84864740588853</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>70.2619956360914</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>289.0886202224028</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>92.12439220761107</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>30.12301518508943</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.0859074973321</v>
+        <v>146.6023298285699</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>53.25457115081724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.2472304928706</v>
       </c>
       <c r="C43" t="n">
-        <v>14.14824366077451</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>166.4409498386617</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>338.066609503934</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I44" t="n">
         <v>77.25676497358228</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U44" t="n">
-        <v>45.16385120339714</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>197.003810860145</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U46" t="n">
-        <v>243.490806183017</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>73.11738174336145</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632023.9445715835</v>
+        <v>632023.9445715834</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857311.7366594286</v>
+        <v>857311.7366594285</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857311.7366594285</v>
+        <v>857311.7366594286</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857311.7366594285</v>
+        <v>857311.7366594286</v>
       </c>
     </row>
     <row r="12">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982126</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982124</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>455620.496104431</v>
@@ -26331,28 +26331,28 @@
         <v>455620.496104431</v>
       </c>
       <c r="H2" t="n">
-        <v>455620.4961044312</v>
+        <v>455620.4961044309</v>
       </c>
       <c r="I2" t="n">
-        <v>587564.9019437844</v>
+        <v>587564.9019437846</v>
       </c>
       <c r="J2" t="n">
-        <v>587564.9019437848</v>
+        <v>587564.9019437847</v>
       </c>
       <c r="K2" t="n">
         <v>587564.9019437846</v>
       </c>
       <c r="L2" t="n">
-        <v>587564.9019437844</v>
+        <v>587564.9019437847</v>
       </c>
       <c r="M2" t="n">
-        <v>455620.4961044312</v>
+        <v>455620.4961044311</v>
       </c>
       <c r="N2" t="n">
         <v>455620.496104431</v>
       </c>
       <c r="O2" t="n">
-        <v>455620.4961044311</v>
+        <v>455620.4961044312</v>
       </c>
       <c r="P2" t="n">
         <v>455620.496104431</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.941699461775</v>
+        <v>3204.941699461776</v>
       </c>
       <c r="E3" t="n">
         <v>875024.8519238398</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151442.5885750763</v>
+        <v>151442.5885750762</v>
       </c>
       <c r="J3" t="n">
         <v>4003.869454409995</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2611.279978297287</v>
+        <v>2611.279978297268</v>
       </c>
       <c r="M3" t="n">
-        <v>12026.67507491324</v>
+        <v>12026.67507491323</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>400839.1127573195</v>
       </c>
       <c r="E4" t="n">
-        <v>25048.99765378027</v>
+        <v>25048.99765378026</v>
       </c>
       <c r="F4" t="n">
         <v>25048.99765378028</v>
       </c>
       <c r="G4" t="n">
-        <v>25048.99765378027</v>
+        <v>25048.99765378028</v>
       </c>
       <c r="H4" t="n">
-        <v>25048.99765378027</v>
+        <v>25048.99765378026</v>
       </c>
       <c r="I4" t="n">
+        <v>74680.1621126195</v>
+      </c>
+      <c r="J4" t="n">
         <v>74680.16211261948</v>
-      </c>
-      <c r="J4" t="n">
-        <v>74680.1621126195</v>
       </c>
       <c r="K4" t="n">
         <v>74680.1621126195</v>
@@ -26450,16 +26450,16 @@
         <v>74680.1621126195</v>
       </c>
       <c r="M4" t="n">
-        <v>25048.99765378026</v>
+        <v>25048.99765378027</v>
       </c>
       <c r="N4" t="n">
         <v>25048.99765378026</v>
       </c>
       <c r="O4" t="n">
-        <v>25048.99765378025</v>
+        <v>25048.99765378026</v>
       </c>
       <c r="P4" t="n">
-        <v>25048.99765378026</v>
+        <v>25048.99765378027</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173568.4743402272</v>
+        <v>173568.474340227</v>
       </c>
       <c r="C6" t="n">
-        <v>178696.7736445116</v>
+        <v>178696.7736445114</v>
       </c>
       <c r="D6" t="n">
-        <v>176551.9592367975</v>
+        <v>176551.9592367978</v>
       </c>
       <c r="E6" t="n">
-        <v>-502309.4773201951</v>
+        <v>-507648.1716966544</v>
       </c>
       <c r="F6" t="n">
-        <v>372715.3746036448</v>
+        <v>367376.6802271853</v>
       </c>
       <c r="G6" t="n">
-        <v>372715.3746036447</v>
+        <v>367376.6802271853</v>
       </c>
       <c r="H6" t="n">
-        <v>372715.3746036449</v>
+        <v>367376.6802271852</v>
       </c>
       <c r="I6" t="n">
-        <v>268960.2950097437</v>
+        <v>268019.7474945962</v>
       </c>
       <c r="J6" t="n">
-        <v>416399.0141304102</v>
+        <v>415458.4666152625</v>
       </c>
       <c r="K6" t="n">
-        <v>420402.88358482</v>
+        <v>419462.3360696724</v>
       </c>
       <c r="L6" t="n">
-        <v>417791.6036065226</v>
+        <v>416851.0560913752</v>
       </c>
       <c r="M6" t="n">
-        <v>360688.6995287316</v>
+        <v>355350.0051522722</v>
       </c>
       <c r="N6" t="n">
-        <v>372715.3746036448</v>
+        <v>367376.6802271854</v>
       </c>
       <c r="O6" t="n">
-        <v>372715.3746036448</v>
+        <v>367376.6802271855</v>
       </c>
       <c r="P6" t="n">
-        <v>372715.3746036447</v>
+        <v>367376.6802271854</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>859.5618246147428</v>
+        <v>859.5618246147429</v>
       </c>
       <c r="F3" t="n">
         <v>859.5618246147428</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>859.5618246147428</v>
+        <v>859.5618246147429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="E4" t="n">
         <v>617.7625389107083</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.5021776207079</v>
+        <v>569.5021776207077</v>
       </c>
       <c r="J4" t="n">
         <v>15.30273751513505</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949586</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="M4" t="n">
-        <v>48.2603612900003</v>
+        <v>48.26036129000029</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949578</v>
+        <v>10.31755367949579</v>
       </c>
       <c r="M4" t="n">
         <v>617.7625389107083</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>368.4517188689308</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T2" t="n">
-        <v>207.8277576413991</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>132.3371525163108</v>
       </c>
       <c r="G3" t="n">
-        <v>123.8648659598797</v>
+        <v>122.0407796480756</v>
       </c>
       <c r="H3" t="n">
         <v>96.93270672136141</v>
@@ -27481,7 +27481,7 @@
         <v>74.09389533628003</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>148.7485213041086</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27587,16 +27587,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>212.6428519131464</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>272.8403781531599</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>236.834905808693</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>349.9701542558725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.3973945383805</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27672,13 +27672,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>244.5042527585278</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>333.938231202278</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>99.50338435942338</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>86.67918294931219</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6638375547068</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>146.9244349923045</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>338.6658804132126</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>184.8555983757751</v>
+        <v>209.8495256553324</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>124.2488267465189</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>150.8887378303428</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27946,7 +27946,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>200.321090886344</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0746919662888</v>
+        <v>229.8752220029466</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>159.987068432813</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>141.626529903997</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F10" t="n">
         <v>119.8007568283004</v>
       </c>
       <c r="G10" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>2.424580076758538</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31758,7 +31758,7 @@
         <v>35.3888946184351</v>
       </c>
       <c r="I11" t="n">
-        <v>133.2191245968236</v>
+        <v>133.2191245968237</v>
       </c>
       <c r="J11" t="n">
         <v>293.2833584397811</v>
@@ -31767,28 +31767,28 @@
         <v>439.555728433518</v>
       </c>
       <c r="L11" t="n">
-        <v>545.3077492980544</v>
+        <v>545.3077492980545</v>
       </c>
       <c r="M11" t="n">
-        <v>606.7599406487777</v>
+        <v>606.7599406487778</v>
       </c>
       <c r="N11" t="n">
-        <v>616.5779508364627</v>
+        <v>616.5779508364628</v>
       </c>
       <c r="O11" t="n">
-        <v>582.2170748826422</v>
+        <v>582.2170748826424</v>
       </c>
       <c r="P11" t="n">
-        <v>496.9088033442443</v>
+        <v>496.9088033442444</v>
       </c>
       <c r="Q11" t="n">
-        <v>373.1578170366444</v>
+        <v>373.1578170366445</v>
       </c>
       <c r="R11" t="n">
-        <v>217.0631174490687</v>
+        <v>217.0631174490688</v>
       </c>
       <c r="S11" t="n">
-        <v>78.74277418455661</v>
+        <v>78.74277418455662</v>
       </c>
       <c r="T11" t="n">
         <v>15.12656035075793</v>
@@ -31837,7 +31837,7 @@
         <v>17.85618054529872</v>
       </c>
       <c r="I12" t="n">
-        <v>63.6562294643937</v>
+        <v>63.65622946439371</v>
       </c>
       <c r="J12" t="n">
         <v>174.6775590945866</v>
@@ -31855,7 +31855,7 @@
         <v>480.8599682814117</v>
       </c>
       <c r="O12" t="n">
-        <v>439.8929273573203</v>
+        <v>439.8929273573204</v>
       </c>
       <c r="P12" t="n">
         <v>353.05285584978</v>
@@ -31867,10 +31867,10 @@
         <v>114.7920489551538</v>
       </c>
       <c r="S12" t="n">
-        <v>34.34192761550409</v>
+        <v>34.3419276155041</v>
       </c>
       <c r="T12" t="n">
-        <v>7.452238837933475</v>
+        <v>7.452238837933476</v>
       </c>
       <c r="U12" t="n">
         <v>0.1216361072568033</v>
@@ -31913,10 +31913,10 @@
         <v>1.550029519797077</v>
       </c>
       <c r="H13" t="n">
-        <v>13.78117154874129</v>
+        <v>13.7811715487413</v>
       </c>
       <c r="I13" t="n">
-        <v>46.61361501353393</v>
+        <v>46.61361501353394</v>
       </c>
       <c r="J13" t="n">
         <v>109.5870870496533</v>
@@ -31931,28 +31931,28 @@
         <v>242.9741728169182</v>
       </c>
       <c r="N13" t="n">
-        <v>237.196790061311</v>
+        <v>237.1967900613111</v>
       </c>
       <c r="O13" t="n">
         <v>219.0896270345906</v>
       </c>
       <c r="P13" t="n">
-        <v>187.46902483073</v>
+        <v>187.4690248307301</v>
       </c>
       <c r="Q13" t="n">
         <v>129.7938355168262</v>
       </c>
       <c r="R13" t="n">
-        <v>69.69496368105764</v>
+        <v>69.69496368105766</v>
       </c>
       <c r="S13" t="n">
-        <v>27.01278717682723</v>
+        <v>27.01278717682724</v>
       </c>
       <c r="T13" t="n">
-        <v>6.622853402769327</v>
+        <v>6.622853402769328</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0845470647162043</v>
+        <v>0.08454706471620431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>15.30273751513505</v>
@@ -34947,10 +34947,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M6" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="O8" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K11" t="n">
-        <v>219.4658773885374</v>
+        <v>219.4658773885375</v>
       </c>
       <c r="L11" t="n">
-        <v>643.3828301053391</v>
+        <v>309.5413343280673</v>
       </c>
       <c r="M11" t="n">
-        <v>376.413707421505</v>
+        <v>376.4137074215051</v>
       </c>
       <c r="N11" t="n">
-        <v>387.1648872398718</v>
+        <v>387.1648872398719</v>
       </c>
       <c r="O11" t="n">
-        <v>390.8657841040597</v>
+        <v>352.1188634609556</v>
       </c>
       <c r="P11" t="n">
-        <v>265.6758075889748</v>
+        <v>265.6758075889749</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.8521271621949</v>
+        <v>354.3439284104967</v>
       </c>
       <c r="R11" t="n">
-        <v>1.477579634936603</v>
+        <v>1.477579634936632</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>160.710331750556</v>
       </c>
       <c r="L12" t="n">
-        <v>633.7256648401212</v>
+        <v>262.8853195366622</v>
       </c>
       <c r="M12" t="n">
-        <v>326.3271604930164</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="N12" t="n">
-        <v>556.4558356752806</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="O12" t="n">
-        <v>297.2966829128759</v>
+        <v>474.2316519098031</v>
       </c>
       <c r="P12" t="n">
-        <v>219.0784484354497</v>
+        <v>219.0784484354498</v>
       </c>
       <c r="Q12" t="n">
-        <v>306.1019980232944</v>
+        <v>96.02471028744529</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.22790693298056</v>
+        <v>16.22790693298057</v>
       </c>
       <c r="K13" t="n">
         <v>157.8157560196321</v>
@@ -35576,19 +35576,19 @@
         <v>258.0371413217835</v>
       </c>
       <c r="M13" t="n">
-        <v>282.5580497787587</v>
+        <v>282.5580497787588</v>
       </c>
       <c r="N13" t="n">
-        <v>281.3289624405396</v>
+        <v>281.3289624405397</v>
       </c>
       <c r="O13" t="n">
-        <v>243.6747549486302</v>
+        <v>243.6747549486303</v>
       </c>
       <c r="P13" t="n">
-        <v>184.7475840956235</v>
+        <v>184.7475840956236</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.63179226513178</v>
+        <v>43.63179226513181</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.2374539130948</v>
+        <v>272.5108796735663</v>
       </c>
       <c r="K14" t="n">
         <v>219.4658773885374</v>
@@ -35664,7 +35664,7 @@
         <v>352.1188634609555</v>
       </c>
       <c r="P14" t="n">
-        <v>425.9492333494462</v>
+        <v>265.6758075889748</v>
       </c>
       <c r="Q14" t="n">
         <v>363.1671178220996</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K15" t="n">
         <v>425.1755687631346</v>
@@ -35734,19 +35734,19 @@
         <v>262.8853195366621</v>
       </c>
       <c r="M15" t="n">
-        <v>643.3828301053391</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N15" t="n">
         <v>349.5182561980783</v>
       </c>
       <c r="O15" t="n">
-        <v>503.6309888044853</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P15" t="n">
-        <v>219.0784484354497</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K17" t="n">
         <v>219.4658773885374</v>
@@ -35898,16 +35898,16 @@
         <v>387.1648872398718</v>
       </c>
       <c r="O17" t="n">
-        <v>643.3828301053391</v>
+        <v>352.1188634609555</v>
       </c>
       <c r="P17" t="n">
-        <v>347.0002573649671</v>
+        <v>265.6758075889748</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.8521271621949</v>
+        <v>288.6275085375147</v>
       </c>
       <c r="R17" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>47.8399324279199</v>
       </c>
       <c r="K18" t="n">
-        <v>425.1755687631346</v>
+        <v>420.0254878912806</v>
       </c>
       <c r="L18" t="n">
-        <v>440.189147848131</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M18" t="n">
         <v>326.3271604930164</v>
@@ -35977,13 +35977,13 @@
         <v>349.5182561980783</v>
       </c>
       <c r="O18" t="n">
-        <v>643.3828301053391</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P18" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>219.4658773885374</v>
       </c>
       <c r="L20" t="n">
-        <v>309.5413343280672</v>
+        <v>349.4442081916265</v>
       </c>
       <c r="M20" t="n">
-        <v>376.413707421505</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="N20" t="n">
-        <v>643.3828301053391</v>
+        <v>387.1648872398718</v>
       </c>
       <c r="O20" t="n">
         <v>352.1188634609555</v>
@@ -36141,10 +36141,10 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q20" t="n">
-        <v>267.2226007171039</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R20" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K21" t="n">
-        <v>308.6148231673426</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L21" t="n">
         <v>262.8853195366621</v>
@@ -36211,16 +36211,16 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N21" t="n">
-        <v>643.3828301053391</v>
+        <v>536.7399086257523</v>
       </c>
       <c r="O21" t="n">
-        <v>643.3828301053391</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P21" t="n">
         <v>219.0784484354497</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>824.511811651856</v>
       </c>
       <c r="O23" t="n">
-        <v>732.9190447237008</v>
+        <v>582.1119824665118</v>
       </c>
       <c r="P23" t="n">
-        <v>436.6674535032683</v>
+        <v>587.4745157604575</v>
       </c>
       <c r="Q23" t="n">
         <v>363.1671178220996</v>
@@ -36442,13 +36442,13 @@
         <v>425.1755687631346</v>
       </c>
       <c r="L24" t="n">
-        <v>633.7256648401212</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M24" t="n">
         <v>326.3271604930164</v>
       </c>
       <c r="N24" t="n">
-        <v>349.5182561980783</v>
+        <v>536.739908625752</v>
       </c>
       <c r="O24" t="n">
         <v>297.2966829128759</v>
@@ -36457,7 +36457,7 @@
         <v>219.0784484354497</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.4833051475091</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>543.6112899597022</v>
       </c>
       <c r="L26" t="n">
-        <v>642.1119064943115</v>
+        <v>727.2025488785176</v>
       </c>
       <c r="M26" t="n">
-        <v>825.9272409143375</v>
+        <v>675.1201786571482</v>
       </c>
       <c r="N26" t="n">
         <v>824.511811651856</v>
@@ -36618,7 +36618,7 @@
         <v>363.1671178220996</v>
       </c>
       <c r="R26" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>173.9309677683287</v>
       </c>
       <c r="K27" t="n">
-        <v>160.710331750556</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L27" t="n">
-        <v>262.8853195366621</v>
+        <v>450.106971964336</v>
       </c>
       <c r="M27" t="n">
-        <v>792.0322242430163</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N27" t="n">
         <v>349.5182561980783</v>
@@ -36691,10 +36691,10 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P27" t="n">
-        <v>415.1375618615512</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>727.2025488785176</v>
       </c>
       <c r="M29" t="n">
-        <v>740.8365985301311</v>
+        <v>825.9272409143375</v>
       </c>
       <c r="N29" t="n">
         <v>824.511811651856</v>
@@ -36849,13 +36849,13 @@
         <v>732.9190447237008</v>
       </c>
       <c r="P29" t="n">
-        <v>587.4745157604575</v>
+        <v>436.6674535032683</v>
       </c>
       <c r="Q29" t="n">
         <v>363.1671178220996</v>
       </c>
       <c r="R29" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>173.9309677683287</v>
+        <v>47.8399324279199</v>
       </c>
       <c r="K30" t="n">
-        <v>425.1755687631346</v>
+        <v>259.2624303236704</v>
       </c>
       <c r="L30" t="n">
         <v>633.7256648401212</v>
       </c>
       <c r="M30" t="n">
-        <v>352.7857553530807</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N30" t="n">
         <v>349.5182561980783</v>
@@ -36928,7 +36928,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P30" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q30" t="n">
         <v>96.02471028744526</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>281.3340690851686</v>
+        <v>196.2434267009623</v>
       </c>
       <c r="K32" t="n">
         <v>543.6112899597022</v>
@@ -37086,7 +37086,7 @@
         <v>732.9190447237008</v>
       </c>
       <c r="P32" t="n">
-        <v>502.3838733762512</v>
+        <v>587.4745157604575</v>
       </c>
       <c r="Q32" t="n">
         <v>363.1671178220996</v>
@@ -37150,7 +37150,7 @@
         <v>47.8399324279199</v>
       </c>
       <c r="K33" t="n">
-        <v>160.710331750556</v>
+        <v>420.0254878912804</v>
       </c>
       <c r="L33" t="n">
         <v>262.8853195366621</v>
@@ -37159,16 +37159,16 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N33" t="n">
-        <v>425.0483807979222</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O33" t="n">
-        <v>691.1590021896054</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P33" t="n">
         <v>537.5412170753868</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K35" t="n">
         <v>219.4658773885374</v>
@@ -37320,13 +37320,13 @@
         <v>387.1648872398718</v>
       </c>
       <c r="O35" t="n">
-        <v>402.9085717098483</v>
+        <v>352.1188634609555</v>
       </c>
       <c r="P35" t="n">
-        <v>587.4745157604575</v>
+        <v>265.6758075889748</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.8521271621949</v>
+        <v>354.3439284104967</v>
       </c>
       <c r="R35" t="n">
         <v>1.477579634936603</v>
@@ -37387,25 +37387,25 @@
         <v>47.8399324279199</v>
       </c>
       <c r="K36" t="n">
-        <v>425.1755687631346</v>
+        <v>160.710331750556</v>
       </c>
       <c r="L36" t="n">
-        <v>576.1980073047446</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M36" t="n">
         <v>326.3271604930164</v>
       </c>
       <c r="N36" t="n">
-        <v>349.5182561980783</v>
+        <v>472.824552882189</v>
       </c>
       <c r="O36" t="n">
-        <v>297.2966829128759</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="P36" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q36" t="n">
-        <v>306.1019980232944</v>
+        <v>96.02471028744526</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q38" t="n">
-        <v>256.4714208987365</v>
+        <v>190.7550010257541</v>
       </c>
       <c r="R38" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K39" t="n">
-        <v>231.6390517711443</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L39" t="n">
-        <v>633.7256648401212</v>
+        <v>450.1069719643357</v>
       </c>
       <c r="M39" t="n">
         <v>326.3271604930164</v>
@@ -37636,13 +37636,13 @@
         <v>349.5182561980783</v>
       </c>
       <c r="O39" t="n">
-        <v>643.3828301053389</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P39" t="n">
         <v>219.0784484354497</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>112.2374539130948</v>
       </c>
       <c r="K41" t="n">
-        <v>219.4658773885374</v>
+        <v>543.6112899597022</v>
       </c>
       <c r="L41" t="n">
         <v>309.5413343280672</v>
       </c>
       <c r="M41" t="n">
-        <v>492.7841809764132</v>
+        <v>376.413707421505</v>
       </c>
       <c r="N41" t="n">
-        <v>643.3828301053389</v>
+        <v>387.1648872398718</v>
       </c>
       <c r="O41" t="n">
-        <v>352.1188634609555</v>
+        <v>400.5618673101662</v>
       </c>
       <c r="P41" t="n">
         <v>265.6758075889748</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K42" t="n">
-        <v>160.710331750556</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L42" t="n">
-        <v>262.8853195366621</v>
+        <v>450.1069719643362</v>
       </c>
       <c r="M42" t="n">
-        <v>643.3828301053389</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N42" t="n">
-        <v>643.3828301053389</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O42" t="n">
-        <v>474.2316519098031</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P42" t="n">
         <v>219.0784484354497</v>
       </c>
       <c r="Q42" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.2374539130948</v>
+        <v>272.5108796735659</v>
       </c>
       <c r="K44" t="n">
-        <v>325.0851711250789</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L44" t="n">
         <v>309.5413343280672</v>
       </c>
       <c r="M44" t="n">
-        <v>643.3828301053389</v>
+        <v>376.413707421505</v>
       </c>
       <c r="N44" t="n">
         <v>387.1648872398718</v>
@@ -38037,7 +38037,7 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.8521271621949</v>
+        <v>363.1671178220996</v>
       </c>
       <c r="R44" t="n">
         <v>1.477579634936603</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>173.9309677683287</v>
+        <v>47.8399324279199</v>
       </c>
       <c r="K45" t="n">
-        <v>160.710331750556</v>
+        <v>420.0254878912806</v>
       </c>
       <c r="L45" t="n">
-        <v>633.7256648401212</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M45" t="n">
         <v>326.3271604930164</v>
@@ -38113,10 +38113,10 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P45" t="n">
-        <v>510.0022803080922</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1973154.227540054</v>
+        <v>1993128.249657367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7311922.400320278</v>
+        <v>7311922.40032028</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4647174.50722654</v>
+        <v>4647174.507226543</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>15.30273751513505</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.84140014930867</v>
       </c>
       <c r="S2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>12.73205987707308</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -822,70 +822,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Y4" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.841400149308679</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.73205987707309</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="U9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="V9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.84491174912431</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.62029119463083</v>
+        <v>23.19571111787229</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.8472125920607</v>
       </c>
       <c r="H11" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>77.25676497358225</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0692109139906</v>
+        <v>199.086731639466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.43196701262805</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.4946483329072</v>
       </c>
       <c r="H12" t="n">
-        <v>94.37926369119774</v>
+        <v>94.37926369119775</v>
       </c>
       <c r="I12" t="n">
-        <v>25.74040338702137</v>
+        <v>25.74040338702138</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52681375459062</v>
+        <v>95.02495386948488</v>
       </c>
       <c r="S13" t="n">
         <v>197.003810860145</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>257.0974969013951</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>11.5698917671408</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4409498386617</v>
       </c>
       <c r="H16" t="n">
-        <v>50.19323183597602</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.3227360255122</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>258.5065656108897</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>67.61007861475507</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H17" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>77.25676497358228</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>84.68502160264134</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>49.05560371691119</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>79.3060856429816</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2344822917747</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>243.426013563283</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T20" t="n">
-        <v>207.9692892133734</v>
+        <v>176.9367039717849</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>59.6242600470669</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>166.4409498386617</v>
       </c>
       <c r="H22" t="n">
-        <v>29.14569036528603</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S22" t="n">
         <v>197.003810860145</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>207.9692892133734</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0692109139906</v>
+        <v>251.0692109139904</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.2344822917747</v>
       </c>
       <c r="V25" t="n">
-        <v>114.4162004426267</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>234.498248940556</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>161.0924410202825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2344822917747</v>
+        <v>248.8891721959475</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>58.90268012680327</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.8807956750555</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.3227360255122</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T32" t="n">
-        <v>207.9692892133734</v>
+        <v>207.9692892133736</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0692109139906</v>
+        <v>251.0692109139913</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.003810860145</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.1997208404227</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2344822917747</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.0997302538897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.0477147806438</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>304.0859074973321</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>321.8960957919814</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.37926369119775</v>
       </c>
       <c r="I36" t="n">
-        <v>25.74040338702138</v>
+        <v>25.74040338702146</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.003810860145</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>155.9069562862016</v>
       </c>
       <c r="W37" t="n">
-        <v>265.6743509307025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>295.0108961349162</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>157.4835776687626</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>197.003810860145</v>
       </c>
       <c r="T40" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2344822917747</v>
+        <v>30.53140450229125</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>195.5866402039477</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>411.8472125920607</v>
       </c>
       <c r="H41" t="n">
-        <v>157.4835776687622</v>
+        <v>95.27487175296642</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.5847496890667</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>23.18491570190388</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2344822917747</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>27.20628226707352</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.8472125920607</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>130.2772954016887</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>52.888290456351</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4409498386617</v>
       </c>
       <c r="H46" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>107.5984276961118</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U46" t="n">
         <v>286.2344822917747</v>
       </c>
       <c r="V46" t="n">
-        <v>179.0202615804666</v>
+        <v>89.07720091762475</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="C2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="D2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="E2" t="n">
-        <v>32.13884024390788</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="F2" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I2" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L2" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M2" t="n">
-        <v>46.6733494211619</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N2" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.2109500605402</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>61.2109500605402</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="S2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="T2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="U2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="V2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="W2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="X2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.75363943919166</v>
+        <v>44.20882949099123</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F3" t="n">
-        <v>48.35028351804213</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="G3" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4412,22 +4412,22 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L3" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M3" t="n">
-        <v>46.6733494211619</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="N3" t="n">
-        <v>61.2109500605402</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="O3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P3" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
@@ -4436,25 +4436,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
         <v>1.224219001210804</v>
@@ -4512,28 +4512,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S4" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W4" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X4" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="C5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="D5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="E5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>35.66202407096459</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>20.20471344961605</v>
       </c>
       <c r="I5" t="n">
         <v>13.29420824829416</v>
@@ -4579,10 +4579,10 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N5" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O5" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4600,19 +4600,19 @@
         <v>51.11933469231312</v>
       </c>
       <c r="U5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="W5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="X5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="G6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="H6" t="n">
-        <v>1.978351653996518</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I6" t="n">
         <v>1.978351653996518</v>
@@ -4649,16 +4649,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M6" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N6" t="n">
-        <v>30.9115297805728</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O6" t="n">
         <v>30.9115297805728</v>
@@ -4670,28 +4670,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S6" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U6" t="n">
         <v>30.29632881784312</v>
       </c>
       <c r="V6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.83901819649459</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E7" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F7" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G7" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
         <v>16.68152962255934</v>
@@ -4734,10 +4734,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N7" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4746,31 +4746,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="U7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V7" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="X7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
     </row>
     <row r="8">
@@ -4813,13 +4813,13 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>52.77779986093951</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="C9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="F9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54.56191997791342</v>
+      </c>
+      <c r="H9" t="n">
         <v>28.6828379631348</v>
-      </c>
-      <c r="C9" t="n">
-        <v>28.6828379631348</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28.6828379631348</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28.6828379631348</v>
-      </c>
-      <c r="F9" t="n">
-        <v>28.6828379631348</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.80375594835618</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.80375594835618</v>
       </c>
       <c r="I9" t="n">
         <v>2.80375594835618</v>
@@ -4886,16 +4886,16 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L9" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M9" t="n">
-        <v>78.14188814362403</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N9" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
         <v>102.4811647785233</v>
@@ -4913,22 +4913,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>102.4811647785233</v>
+        <v>80.44100199269204</v>
       </c>
       <c r="U9" t="n">
-        <v>76.6020827637447</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="V9" t="n">
-        <v>50.72300074896609</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="W9" t="n">
-        <v>28.6828379631348</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="X9" t="n">
-        <v>28.6828379631348</v>
+        <v>54.56191997791342</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.6828379631348</v>
+        <v>54.56191997791342</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.68686933990632</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="C10" t="n">
-        <v>53.80778732512771</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="D10" t="n">
-        <v>53.80778732512771</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="E10" t="n">
-        <v>27.92870531034908</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="F10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="G10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="H10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="I10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -5004,10 +5004,10 @@
         <v>99.73223474306219</v>
       </c>
       <c r="X10" t="n">
-        <v>99.73223474306219</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.73223474306219</v>
+        <v>73.85315272828358</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.460783110687</v>
+        <v>1222.228681393609</v>
       </c>
       <c r="C11" t="n">
-        <v>1238.460783110687</v>
+        <v>853.2661644531973</v>
       </c>
       <c r="D11" t="n">
-        <v>1238.460783110687</v>
+        <v>853.2661644531973</v>
       </c>
       <c r="E11" t="n">
-        <v>852.6725305124423</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="F11" t="n">
-        <v>852.6725305124423</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G11" t="n">
-        <v>436.6652450659163</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5077627453789</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I11" t="n">
         <v>51.47062640842712</v>
@@ -5044,10 +5044,10 @@
         <v>329.991354802744</v>
       </c>
       <c r="K11" t="n">
-        <v>547.2625734173961</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L11" t="n">
-        <v>853.7084944021827</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M11" t="n">
         <v>1226.358064749473</v>
@@ -5056,37 +5056,37 @@
         <v>1609.651303116946</v>
       </c>
       <c r="O11" t="n">
-        <v>1958.248977943292</v>
+        <v>2094.646605504858</v>
       </c>
       <c r="P11" t="n">
-        <v>2221.268027456377</v>
+        <v>2357.665655017943</v>
       </c>
       <c r="Q11" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R11" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S11" t="n">
-        <v>2441.938092742883</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T11" t="n">
-        <v>2231.868103638465</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U11" t="n">
-        <v>1978.26284008898</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="V11" t="n">
-        <v>1978.26284008898</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="W11" t="n">
-        <v>1625.494184818866</v>
+        <v>2372.433611694622</v>
       </c>
       <c r="X11" t="n">
-        <v>1252.028426557786</v>
+        <v>1998.967853433543</v>
       </c>
       <c r="Y11" t="n">
-        <v>1238.460783110687</v>
+        <v>1608.828521457731</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.8263565224329</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C12" t="n">
-        <v>764.3733272413059</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D12" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E12" t="n">
-        <v>456.201462574599</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F12" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G12" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H12" t="n">
-        <v>77.47103387006484</v>
+        <v>77.47103387006473</v>
       </c>
       <c r="I12" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J12" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K12" t="n">
-        <v>257.9353879451182</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L12" t="n">
-        <v>518.1918542864138</v>
+        <v>904.8425639158713</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.140856090699</v>
+        <v>1227.906452803958</v>
       </c>
       <c r="N12" t="n">
-        <v>1792.089857894985</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O12" t="n">
-        <v>2261.57919328569</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P12" t="n">
-        <v>2478.466857236785</v>
+        <v>2400.419047428435</v>
       </c>
       <c r="Q12" t="n">
-        <v>2573.531320421356</v>
+        <v>2559.04344776687</v>
       </c>
       <c r="R12" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T12" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U12" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V12" t="n">
         <v>1776.890849241189</v>
       </c>
       <c r="W12" t="n">
-        <v>1522.653492512988</v>
+        <v>1522.653492512987</v>
       </c>
       <c r="X12" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y12" t="n">
         <v>1107.041693542501</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.47062640842712</v>
+        <v>515.2098504166374</v>
       </c>
       <c r="C13" t="n">
-        <v>51.47062640842712</v>
+        <v>346.2736674887306</v>
       </c>
       <c r="D13" t="n">
-        <v>51.47062640842712</v>
+        <v>346.2736674887306</v>
       </c>
       <c r="E13" t="n">
-        <v>51.47062640842712</v>
+        <v>198.3605739063375</v>
       </c>
       <c r="F13" t="n">
         <v>51.47062640842712</v>
@@ -5199,7 +5199,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J13" t="n">
-        <v>67.53625427207788</v>
+        <v>67.53625427207787</v>
       </c>
       <c r="K13" t="n">
         <v>223.7738527315136</v>
@@ -5223,28 +5223,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R13" t="n">
-        <v>1466.906482254092</v>
+        <v>1408.827552845108</v>
       </c>
       <c r="S13" t="n">
-        <v>1267.912733910511</v>
+        <v>1209.833804501527</v>
       </c>
       <c r="T13" t="n">
-        <v>1044.354414692822</v>
+        <v>986.2754852838377</v>
       </c>
       <c r="U13" t="n">
-        <v>1044.354414692822</v>
+        <v>986.2754852838377</v>
       </c>
       <c r="V13" t="n">
-        <v>789.6699264869352</v>
+        <v>986.2754852838377</v>
       </c>
       <c r="W13" t="n">
-        <v>500.2527564499746</v>
+        <v>696.8583152468772</v>
       </c>
       <c r="X13" t="n">
-        <v>272.2632055519572</v>
+        <v>696.8583152468772</v>
       </c>
       <c r="Y13" t="n">
-        <v>51.47062640842712</v>
+        <v>696.8583152468772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1112.960605767738</v>
+        <v>1206.510482403029</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.960605767738</v>
+        <v>1206.510482403029</v>
       </c>
       <c r="D14" t="n">
-        <v>853.2661644531973</v>
+        <v>848.2447837962789</v>
       </c>
       <c r="E14" t="n">
-        <v>467.4779118549531</v>
+        <v>462.4565311980347</v>
       </c>
       <c r="F14" t="n">
-        <v>467.4779118549531</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G14" t="n">
         <v>51.47062640842712</v>
@@ -5278,52 +5278,52 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J14" t="n">
-        <v>321.2563972852578</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K14" t="n">
-        <v>538.5276158999098</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L14" t="n">
-        <v>844.9735368846964</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M14" t="n">
-        <v>1217.623107231986</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N14" t="n">
-        <v>1600.916345599459</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O14" t="n">
-        <v>1949.514020425805</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P14" t="n">
-        <v>2212.533069938891</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q14" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R14" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S14" t="n">
-        <v>2573.531320421356</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T14" t="n">
-        <v>2573.531320421356</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U14" t="n">
-        <v>2573.531320421356</v>
+        <v>1978.262840088979</v>
       </c>
       <c r="V14" t="n">
-        <v>2242.468433077785</v>
+        <v>1966.576080728231</v>
       </c>
       <c r="W14" t="n">
-        <v>1889.699777807671</v>
+        <v>1966.576080728231</v>
       </c>
       <c r="X14" t="n">
-        <v>1889.699777807671</v>
+        <v>1593.110322467151</v>
       </c>
       <c r="Y14" t="n">
-        <v>1499.56044583186</v>
+        <v>1593.110322467151</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C15" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D15" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E15" t="n">
-        <v>456.2014625745991</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F15" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G15" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H15" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006473</v>
       </c>
       <c r="I15" t="n">
         <v>51.47062640842712</v>
@@ -5360,7 +5360,7 @@
         <v>223.6622844990726</v>
       </c>
       <c r="K15" t="n">
-        <v>644.5860975745759</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L15" t="n">
         <v>904.8425639158713</v>
@@ -5375,7 +5375,7 @@
         <v>1868.253242523802</v>
       </c>
       <c r="P15" t="n">
-        <v>2270.490342378295</v>
+        <v>2270.490342378294</v>
       </c>
       <c r="Q15" t="n">
         <v>2573.531320421356</v>
@@ -5384,13 +5384,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T15" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U15" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V15" t="n">
         <v>1776.890849241189</v>
@@ -5399,7 +5399,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X15" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y15" t="n">
         <v>1107.041693542501</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>736.2358019785374</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="C16" t="n">
-        <v>567.2996190506306</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="D16" t="n">
-        <v>417.1829796382948</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="E16" t="n">
-        <v>417.1829796382948</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="F16" t="n">
-        <v>270.2930321403844</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1708605861807</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H16" t="n">
         <v>51.47062640842712</v>
@@ -5436,7 +5436,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J16" t="n">
-        <v>67.53625427207788</v>
+        <v>67.53625427207787</v>
       </c>
       <c r="K16" t="n">
         <v>223.7738527315136</v>
@@ -5469,19 +5469,19 @@
         <v>1172.568755014664</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.568755014664</v>
+        <v>911.4510119733613</v>
       </c>
       <c r="V16" t="n">
-        <v>917.8842668087772</v>
+        <v>911.4510119733613</v>
       </c>
       <c r="W16" t="n">
-        <v>917.8842668087772</v>
+        <v>622.0338419364007</v>
       </c>
       <c r="X16" t="n">
-        <v>917.8842668087772</v>
+        <v>622.0338419364007</v>
       </c>
       <c r="Y16" t="n">
-        <v>917.8842668087772</v>
+        <v>401.2412627928705</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>920.9655392142151</v>
+        <v>1711.251722520168</v>
       </c>
       <c r="C17" t="n">
-        <v>920.9655392142151</v>
+        <v>1342.289205579757</v>
       </c>
       <c r="D17" t="n">
-        <v>920.9655392142151</v>
+        <v>1342.289205579757</v>
       </c>
       <c r="E17" t="n">
-        <v>920.9655392142151</v>
+        <v>956.5009529815125</v>
       </c>
       <c r="F17" t="n">
-        <v>852.6725305124423</v>
+        <v>545.515048191905</v>
       </c>
       <c r="G17" t="n">
-        <v>436.6652450659163</v>
+        <v>129.5077627453789</v>
       </c>
       <c r="H17" t="n">
         <v>129.5077627453789</v>
@@ -5515,52 +5515,52 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J17" t="n">
-        <v>329.991354802744</v>
+        <v>162.585705782391</v>
       </c>
       <c r="K17" t="n">
-        <v>547.262573417396</v>
+        <v>379.856924397043</v>
       </c>
       <c r="L17" t="n">
-        <v>853.7084944021825</v>
+        <v>686.3028453818296</v>
       </c>
       <c r="M17" t="n">
-        <v>1226.358064749473</v>
+        <v>1058.95241572912</v>
       </c>
       <c r="N17" t="n">
-        <v>1609.651303116946</v>
+        <v>1442.245654096593</v>
       </c>
       <c r="O17" t="n">
-        <v>1958.248977943292</v>
+        <v>1790.843328922939</v>
       </c>
       <c r="P17" t="n">
-        <v>2221.268027456377</v>
+        <v>2372.443099525792</v>
       </c>
       <c r="Q17" t="n">
-        <v>2507.009260908516</v>
+        <v>2521.786705416365</v>
       </c>
       <c r="R17" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S17" t="n">
-        <v>2441.938092742883</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T17" t="n">
-        <v>2231.868103638465</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U17" t="n">
-        <v>1978.26284008898</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="V17" t="n">
-        <v>1647.199952745409</v>
+        <v>2487.990894560102</v>
       </c>
       <c r="W17" t="n">
-        <v>1294.431297475295</v>
+        <v>2487.990894560102</v>
       </c>
       <c r="X17" t="n">
-        <v>920.9655392142151</v>
+        <v>2487.990894560102</v>
       </c>
       <c r="Y17" t="n">
-        <v>920.9655392142151</v>
+        <v>2097.85156258429</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>172.8036234571333</v>
       </c>
       <c r="H18" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006487</v>
       </c>
       <c r="I18" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J18" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K18" t="n">
-        <v>514.6573925244356</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L18" t="n">
-        <v>774.9138588657311</v>
+        <v>1090.191999819269</v>
       </c>
       <c r="M18" t="n">
-        <v>1097.977747753817</v>
+        <v>1413.255888707355</v>
       </c>
       <c r="N18" t="n">
-        <v>1444.000821389915</v>
+        <v>1759.278962343452</v>
       </c>
       <c r="O18" t="n">
-        <v>1738.324537473662</v>
+        <v>2053.602678427199</v>
       </c>
       <c r="P18" t="n">
         <v>2270.490342378295</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.47062640842712</v>
+        <v>269.1439128281977</v>
       </c>
       <c r="C19" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="D19" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="E19" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47062640842712</v>
+        <v>219.5927979626308</v>
       </c>
       <c r="G19" t="n">
         <v>51.47062640842712</v>
@@ -5673,7 +5673,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J19" t="n">
-        <v>67.53625427207788</v>
+        <v>67.53625427207787</v>
       </c>
       <c r="K19" t="n">
         <v>223.7738527315136</v>
@@ -5700,25 +5700,25 @@
         <v>1504.812354733476</v>
       </c>
       <c r="S19" t="n">
-        <v>1305.818606389895</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="T19" t="n">
-        <v>1225.711449174762</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="U19" t="n">
-        <v>936.5857094861011</v>
+        <v>1215.686615044815</v>
       </c>
       <c r="V19" t="n">
-        <v>681.9012212802143</v>
+        <v>961.0021268389281</v>
       </c>
       <c r="W19" t="n">
-        <v>681.9012212802143</v>
+        <v>671.5849568019676</v>
       </c>
       <c r="X19" t="n">
-        <v>453.9116703821969</v>
+        <v>671.5849568019676</v>
       </c>
       <c r="Y19" t="n">
-        <v>233.1190912386668</v>
+        <v>450.7923776584374</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1879.099448368351</v>
+        <v>1205.916848462274</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.136931427939</v>
+        <v>1205.916848462274</v>
       </c>
       <c r="D20" t="n">
-        <v>1264.252069242805</v>
+        <v>847.651149855524</v>
       </c>
       <c r="E20" t="n">
-        <v>878.4638166445607</v>
+        <v>847.651149855524</v>
       </c>
       <c r="F20" t="n">
-        <v>467.4779118549531</v>
+        <v>436.6652450659163</v>
       </c>
       <c r="G20" t="n">
-        <v>51.47062640842712</v>
+        <v>436.6652450659163</v>
       </c>
       <c r="H20" t="n">
-        <v>51.47062640842712</v>
+        <v>129.5077627453789</v>
       </c>
       <c r="I20" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J20" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K20" t="n">
-        <v>379.856924397043</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L20" t="n">
-        <v>725.8066905067533</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.755692311039</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N20" t="n">
-        <v>1746.048930678512</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O20" t="n">
-        <v>2094.646605504858</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P20" t="n">
-        <v>2357.665655017943</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q20" t="n">
         <v>2507.009260908516</v>
@@ -5779,25 +5779,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S20" t="n">
-        <v>2441.938092742883</v>
+        <v>2441.938092742882</v>
       </c>
       <c r="T20" t="n">
-        <v>2231.868103638465</v>
+        <v>2263.214149337039</v>
       </c>
       <c r="U20" t="n">
-        <v>2231.868103638465</v>
+        <v>2263.214149337039</v>
       </c>
       <c r="V20" t="n">
-        <v>2231.868103638465</v>
+        <v>1932.151261993468</v>
       </c>
       <c r="W20" t="n">
-        <v>1879.099448368351</v>
+        <v>1579.382606723354</v>
       </c>
       <c r="X20" t="n">
-        <v>1879.099448368351</v>
+        <v>1205.916848462274</v>
       </c>
       <c r="Y20" t="n">
-        <v>1879.099448368351</v>
+        <v>1205.916848462274</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224324</v>
       </c>
       <c r="C21" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413054</v>
       </c>
       <c r="D21" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800541</v>
       </c>
       <c r="E21" t="n">
-        <v>456.2014625745991</v>
+        <v>456.2014625745985</v>
       </c>
       <c r="F21" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014836</v>
       </c>
       <c r="G21" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571332</v>
       </c>
       <c r="H21" t="n">
-        <v>77.47103387006489</v>
+        <v>77.47103387006473</v>
       </c>
       <c r="I21" t="n">
         <v>51.47062640842712</v>
@@ -5834,7 +5834,7 @@
         <v>223.6622844990726</v>
       </c>
       <c r="K21" t="n">
-        <v>644.5860975745759</v>
+        <v>644.5860975745758</v>
       </c>
       <c r="L21" t="n">
         <v>904.8425639158713</v>
@@ -5843,13 +5843,13 @@
         <v>1227.906452803958</v>
       </c>
       <c r="N21" t="n">
-        <v>1759.278962343452</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O21" t="n">
-        <v>2053.602678427199</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P21" t="n">
-        <v>2270.490342378295</v>
+        <v>2270.490342378294</v>
       </c>
       <c r="Q21" t="n">
         <v>2573.531320421356</v>
@@ -5858,13 +5858,13 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.802791645262</v>
+        <v>2434.802791645261</v>
       </c>
       <c r="T21" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U21" t="n">
-        <v>2012.042957472932</v>
+        <v>2012.042957472931</v>
       </c>
       <c r="V21" t="n">
         <v>1776.890849241189</v>
@@ -5873,7 +5873,7 @@
         <v>1522.653492512987</v>
       </c>
       <c r="X21" t="n">
-        <v>1314.801992307455</v>
+        <v>1314.801992307454</v>
       </c>
       <c r="Y21" t="n">
         <v>1107.041693542501</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>249.0328892406976</v>
+        <v>429.7647787765351</v>
       </c>
       <c r="C22" t="n">
-        <v>249.0328892406976</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="D22" t="n">
-        <v>249.0328892406976</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="E22" t="n">
-        <v>249.0328892406976</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="F22" t="n">
-        <v>249.0328892406976</v>
+        <v>369.5382534764675</v>
       </c>
       <c r="G22" t="n">
-        <v>80.91071768649383</v>
+        <v>201.4160819222638</v>
       </c>
       <c r="H22" t="n">
         <v>51.47062640842712</v>
@@ -5910,7 +5910,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J22" t="n">
-        <v>67.53625427207788</v>
+        <v>67.53625427207787</v>
       </c>
       <c r="K22" t="n">
         <v>223.7738527315136</v>
@@ -5934,28 +5934,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R22" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="S22" t="n">
-        <v>1305.818606389895</v>
+        <v>1197.133325888772</v>
       </c>
       <c r="T22" t="n">
-        <v>1082.260287172206</v>
+        <v>973.5750066710832</v>
       </c>
       <c r="U22" t="n">
-        <v>793.134547483545</v>
+        <v>684.4492669824219</v>
       </c>
       <c r="V22" t="n">
-        <v>538.4500592776582</v>
+        <v>429.7647787765351</v>
       </c>
       <c r="W22" t="n">
-        <v>249.0328892406976</v>
+        <v>429.7647787765351</v>
       </c>
       <c r="X22" t="n">
-        <v>249.0328892406976</v>
+        <v>429.7647787765351</v>
       </c>
       <c r="Y22" t="n">
-        <v>249.0328892406976</v>
+        <v>429.7647787765351</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>898.2327047220992</v>
       </c>
       <c r="G23" t="n">
-        <v>482.2254192755729</v>
+        <v>482.2254192755732</v>
       </c>
       <c r="H23" t="n">
         <v>175.0679369550356</v>
@@ -5998,10 +5998,10 @@
         <v>1633.657229462238</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.325197967432</v>
+        <v>2302.026206332815</v>
       </c>
       <c r="N23" t="n">
-        <v>3267.59189150277</v>
+        <v>3118.292899868152</v>
       </c>
       <c r="O23" t="n">
         <v>3843.882754144616</v>
@@ -6080,13 +6080,13 @@
         <v>1273.466627013614</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.839136553109</v>
+        <v>1619.489700649712</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.162852636856</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P24" t="n">
-        <v>2316.050516587951</v>
+        <v>2445.979221638092</v>
       </c>
       <c r="Q24" t="n">
         <v>2619.091494631013</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="C25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="D25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="E25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="F25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="G25" t="n">
         <v>97.03080061808376</v>
@@ -6183,16 +6183,16 @@
         <v>730.0094411920786</v>
       </c>
       <c r="V25" t="n">
-        <v>614.4375215530617</v>
+        <v>730.0094411920786</v>
       </c>
       <c r="W25" t="n">
-        <v>325.0203515161011</v>
+        <v>493.1425230703048</v>
       </c>
       <c r="X25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2422.235077657112</v>
+        <v>2422.235077657113</v>
       </c>
       <c r="C26" t="n">
-        <v>2053.2725607167</v>
+        <v>2053.272560716701</v>
       </c>
       <c r="D26" t="n">
-        <v>1695.00686210995</v>
+        <v>1695.006862109951</v>
       </c>
       <c r="E26" t="n">
-        <v>1309.218609511706</v>
+        <v>1309.218609511707</v>
       </c>
       <c r="F26" t="n">
-        <v>898.2327047220988</v>
+        <v>898.2327047220992</v>
       </c>
       <c r="G26" t="n">
-        <v>482.2254192755728</v>
+        <v>482.2254192755729</v>
       </c>
       <c r="H26" t="n">
-        <v>175.0679369550354</v>
+        <v>175.0679369550356</v>
       </c>
       <c r="I26" t="n">
         <v>97.03080061808376</v>
       </c>
       <c r="J26" t="n">
-        <v>375.5515290124006</v>
+        <v>226.2525373777834</v>
       </c>
       <c r="K26" t="n">
-        <v>913.7267060725057</v>
+        <v>764.4277144378885</v>
       </c>
       <c r="L26" t="n">
-        <v>1633.657229462238</v>
+        <v>1484.358237827621</v>
       </c>
       <c r="M26" t="n">
         <v>2302.026206332815</v>
@@ -6259,19 +6259,19 @@
         <v>4509.876814121297</v>
       </c>
       <c r="U26" t="n">
-        <v>4256.271550571811</v>
+        <v>4256.271550571812</v>
       </c>
       <c r="V26" t="n">
-        <v>3925.20866322824</v>
+        <v>3925.208663228241</v>
       </c>
       <c r="W26" t="n">
         <v>3572.440007958126</v>
       </c>
       <c r="X26" t="n">
-        <v>3198.974249697046</v>
+        <v>3198.974249697047</v>
       </c>
       <c r="Y26" t="n">
-        <v>2808.834917721234</v>
+        <v>2808.834917721235</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>690.1462717842325</v>
       </c>
       <c r="L27" t="n">
-        <v>1135.752174028925</v>
+        <v>950.402738125528</v>
       </c>
       <c r="M27" t="n">
-        <v>1458.816062917011</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.839136553109</v>
+        <v>1619.489700649712</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.162852636856</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P27" t="n">
         <v>2316.050516587951</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.7801710070373</v>
+        <v>560.7700246262941</v>
       </c>
       <c r="C28" t="n">
-        <v>395.0605336128126</v>
+        <v>391.8338416983872</v>
       </c>
       <c r="D28" t="n">
-        <v>244.9438942004769</v>
+        <v>391.8338416983872</v>
       </c>
       <c r="E28" t="n">
-        <v>97.03080061808376</v>
+        <v>243.9207481159941</v>
       </c>
       <c r="F28" t="n">
         <v>97.03080061808376</v>
@@ -6417,19 +6417,19 @@
         <v>1550.372528943133</v>
       </c>
       <c r="U28" t="n">
-        <v>1261.246789254472</v>
+        <v>1298.969324704802</v>
       </c>
       <c r="V28" t="n">
-        <v>1006.562301048585</v>
+        <v>1298.969324704802</v>
       </c>
       <c r="W28" t="n">
-        <v>1006.562301048585</v>
+        <v>1009.552154667842</v>
       </c>
       <c r="X28" t="n">
-        <v>778.5727501505675</v>
+        <v>781.5626037698242</v>
       </c>
       <c r="Y28" t="n">
-        <v>557.7801710070373</v>
+        <v>560.7700246262941</v>
       </c>
     </row>
     <row r="29">
@@ -6481,7 +6481,7 @@
         <v>3993.181745779234</v>
       </c>
       <c r="P29" t="n">
-        <v>4425.482524747469</v>
+        <v>4574.781516382087</v>
       </c>
       <c r="Q29" t="n">
         <v>4785.017971391348</v>
@@ -6542,25 +6542,25 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J30" t="n">
-        <v>144.3923337217245</v>
+        <v>269.2224587087292</v>
       </c>
       <c r="K30" t="n">
-        <v>401.0621397421581</v>
+        <v>690.1462717842325</v>
       </c>
       <c r="L30" t="n">
-        <v>1028.450547933878</v>
+        <v>1135.752174028925</v>
       </c>
       <c r="M30" t="n">
-        <v>1351.514436821964</v>
+        <v>1458.816062917011</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.537510458062</v>
+        <v>1804.839136553109</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.861226541809</v>
+        <v>2099.162852636856</v>
       </c>
       <c r="P30" t="n">
-        <v>2524.027031446442</v>
+        <v>2316.050516587951</v>
       </c>
       <c r="Q30" t="n">
         <v>2619.091494631013</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.03080061808376</v>
+        <v>434.0891551001944</v>
       </c>
       <c r="C31" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="D31" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="E31" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="F31" t="n">
-        <v>97.03080061808376</v>
+        <v>265.1529721722875</v>
       </c>
       <c r="G31" t="n">
         <v>97.03080061808376</v>
@@ -6648,25 +6648,25 @@
         <v>1550.372528943133</v>
       </c>
       <c r="S31" t="n">
-        <v>1381.806068665299</v>
+        <v>1550.372528943133</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.24774944761</v>
+        <v>1326.814209725444</v>
       </c>
       <c r="U31" t="n">
-        <v>869.1220097589486</v>
+        <v>1037.688470036783</v>
       </c>
       <c r="V31" t="n">
-        <v>614.4375215530617</v>
+        <v>783.0039818308957</v>
       </c>
       <c r="W31" t="n">
-        <v>325.0203515161011</v>
+        <v>493.5868117939351</v>
       </c>
       <c r="X31" t="n">
-        <v>97.03080061808376</v>
+        <v>493.5868117939351</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.03080061808376</v>
+        <v>493.5868117939351</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2422.235077657113</v>
       </c>
       <c r="C32" t="n">
-        <v>2053.272560716701</v>
+        <v>2053.272560716702</v>
       </c>
       <c r="D32" t="n">
         <v>1695.006862109951</v>
@@ -6688,40 +6688,40 @@
         <v>1309.218609511707</v>
       </c>
       <c r="F32" t="n">
-        <v>898.2327047220992</v>
+        <v>898.2327047220989</v>
       </c>
       <c r="G32" t="n">
-        <v>482.2254192755736</v>
+        <v>482.2254192755729</v>
       </c>
       <c r="H32" t="n">
-        <v>175.0679369550362</v>
+        <v>175.0679369550356</v>
       </c>
       <c r="I32" t="n">
         <v>97.03080061808376</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3117930520365</v>
+        <v>226.2525373777834</v>
       </c>
       <c r="K32" t="n">
-        <v>829.4869701121416</v>
+        <v>764.4277144378885</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.417493501874</v>
+        <v>1484.358237827621</v>
       </c>
       <c r="M32" t="n">
-        <v>2367.085462007068</v>
+        <v>2302.026206332815</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.352155542405</v>
+        <v>3118.292899868152</v>
       </c>
       <c r="O32" t="n">
-        <v>3908.942009818869</v>
+        <v>3843.882754144616</v>
       </c>
       <c r="P32" t="n">
-        <v>4490.541780421722</v>
+        <v>4425.482524747469</v>
       </c>
       <c r="Q32" t="n">
-        <v>4850.077227065601</v>
+        <v>4785.017971391348</v>
       </c>
       <c r="R32" t="n">
         <v>4851.540030904188</v>
@@ -6733,13 +6733,13 @@
         <v>4509.876814121297</v>
       </c>
       <c r="U32" t="n">
-        <v>4256.271550571812</v>
+        <v>4256.271550571811</v>
       </c>
       <c r="V32" t="n">
-        <v>3925.208663228241</v>
+        <v>3925.20866322824</v>
       </c>
       <c r="W32" t="n">
-        <v>3572.440007958126</v>
+        <v>3572.440007958127</v>
       </c>
       <c r="X32" t="n">
         <v>3198.974249697047</v>
@@ -6779,22 +6779,22 @@
         <v>97.03080061808376</v>
       </c>
       <c r="J33" t="n">
-        <v>144.3923337217245</v>
+        <v>269.2224587087292</v>
       </c>
       <c r="K33" t="n">
-        <v>560.2175667340921</v>
+        <v>690.1462717842325</v>
       </c>
       <c r="L33" t="n">
-        <v>820.4740330753875</v>
+        <v>950.402738125528</v>
       </c>
       <c r="M33" t="n">
-        <v>1143.537921963474</v>
+        <v>1273.466627013614</v>
       </c>
       <c r="N33" t="n">
-        <v>1489.560995599571</v>
+        <v>1619.489700649712</v>
       </c>
       <c r="O33" t="n">
-        <v>1783.884711683318</v>
+        <v>1913.813416733459</v>
       </c>
       <c r="P33" t="n">
         <v>2316.050516587951</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>988.9450577279088</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="C34" t="n">
-        <v>820.0088748000019</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="D34" t="n">
-        <v>669.8922353876661</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="E34" t="n">
-        <v>521.979141805273</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="F34" t="n">
-        <v>375.0891943073626</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="G34" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="H34" t="n">
-        <v>206.9670227531589</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="I34" t="n">
         <v>97.03080061808376</v>
@@ -6888,22 +6888,22 @@
         <v>1351.378780599552</v>
       </c>
       <c r="T34" t="n">
-        <v>1351.378780599552</v>
+        <v>1158.24774944761</v>
       </c>
       <c r="U34" t="n">
-        <v>1351.378780599552</v>
+        <v>869.1220097589486</v>
       </c>
       <c r="V34" t="n">
-        <v>1351.378780599552</v>
+        <v>614.4375215530617</v>
       </c>
       <c r="W34" t="n">
-        <v>1351.378780599552</v>
+        <v>325.0203515161011</v>
       </c>
       <c r="X34" t="n">
-        <v>1123.389229701535</v>
+        <v>97.03080061808376</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.9450577279088</v>
+        <v>97.03080061808376</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1329.103839147567</v>
+        <v>1471.644576874371</v>
       </c>
       <c r="C35" t="n">
-        <v>1329.103839147567</v>
+        <v>1102.682059933959</v>
       </c>
       <c r="D35" t="n">
-        <v>1185.621298965098</v>
+        <v>744.4163613272087</v>
       </c>
       <c r="E35" t="n">
-        <v>1185.621298965098</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="F35" t="n">
-        <v>774.6353941754905</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="G35" t="n">
         <v>358.6281087289645</v>
@@ -6958,31 +6958,31 @@
         <v>2221.268027456377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R35" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S35" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T35" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U35" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="V35" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="W35" t="n">
-        <v>2089.169437472768</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="X35" t="n">
-        <v>1715.703679211688</v>
+        <v>2248.383748914304</v>
       </c>
       <c r="Y35" t="n">
-        <v>1715.703679211688</v>
+        <v>1858.244416938493</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>938.8263565224328</v>
+        <v>938.8263565224329</v>
       </c>
       <c r="C36" t="n">
-        <v>764.3733272413058</v>
+        <v>764.3733272413059</v>
       </c>
       <c r="D36" t="n">
-        <v>615.4389175800545</v>
+        <v>615.4389175800546</v>
       </c>
       <c r="E36" t="n">
         <v>456.2014625745991</v>
       </c>
       <c r="F36" t="n">
-        <v>309.666904601484</v>
+        <v>309.6669046014841</v>
       </c>
       <c r="G36" t="n">
-        <v>172.8036234571333</v>
+        <v>172.8036234571334</v>
       </c>
       <c r="H36" t="n">
-        <v>77.47103387006487</v>
+        <v>77.47103387006496</v>
       </c>
       <c r="I36" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J36" t="n">
-        <v>98.83215951206782</v>
+        <v>223.6622844990726</v>
       </c>
       <c r="K36" t="n">
-        <v>257.9353879451182</v>
+        <v>514.6573925244356</v>
       </c>
       <c r="L36" t="n">
-        <v>518.1918542864137</v>
+        <v>774.9138588657311</v>
       </c>
       <c r="M36" t="n">
-        <v>841.2557431744999</v>
+        <v>1097.977747753817</v>
       </c>
       <c r="N36" t="n">
-        <v>1309.352050527867</v>
+        <v>1444.000821389915</v>
       </c>
       <c r="O36" t="n">
-        <v>1946.301052332152</v>
+        <v>1738.324537473662</v>
       </c>
       <c r="P36" t="n">
-        <v>2478.466857236785</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q36" t="n">
         <v>2573.531320421356</v>
@@ -7055,7 +7055,7 @@
         <v>1776.890849241189</v>
       </c>
       <c r="W36" t="n">
-        <v>1522.653492512987</v>
+        <v>1522.653492512988</v>
       </c>
       <c r="X36" t="n">
         <v>1314.801992307455</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="C37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="E37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="F37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="G37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H37" t="n">
-        <v>161.4068485435022</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="I37" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J37" t="n">
-        <v>67.53625427207787</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K37" t="n">
         <v>223.7738527315136</v>
@@ -7125,22 +7125,22 @@
         <v>1197.133325888772</v>
       </c>
       <c r="T37" t="n">
-        <v>973.5750066710832</v>
+        <v>1197.133325888772</v>
       </c>
       <c r="U37" t="n">
-        <v>684.4492669824219</v>
+        <v>908.0075862001111</v>
       </c>
       <c r="V37" t="n">
-        <v>429.7647787765351</v>
+        <v>750.5258121736448</v>
       </c>
       <c r="W37" t="n">
-        <v>161.4068485435022</v>
+        <v>461.1086421366842</v>
       </c>
       <c r="X37" t="n">
-        <v>161.4068485435022</v>
+        <v>233.1190912386668</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.4068485435022</v>
+        <v>233.1190912386668</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1504.501286579712</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="C38" t="n">
-        <v>1206.510482403029</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="D38" t="n">
-        <v>848.2447837962789</v>
+        <v>1264.252069242805</v>
       </c>
       <c r="E38" t="n">
-        <v>462.4565311980347</v>
+        <v>878.4638166445607</v>
       </c>
       <c r="F38" t="n">
-        <v>51.47062640842712</v>
+        <v>467.4779118549531</v>
       </c>
       <c r="G38" t="n">
         <v>51.47062640842712</v>
@@ -7174,25 +7174,25 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J38" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K38" t="n">
-        <v>379.856924397043</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L38" t="n">
-        <v>686.3028453818296</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M38" t="n">
-        <v>1323.251847186115</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N38" t="n">
-        <v>1706.545085553588</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.142760379934</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P38" t="n">
-        <v>2318.161809893019</v>
+        <v>2221.268027456377</v>
       </c>
       <c r="Q38" t="n">
         <v>2507.009260908516</v>
@@ -7201,25 +7201,25 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S38" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="T38" t="n">
-        <v>2441.938092742882</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="U38" t="n">
-        <v>2188.332829193397</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="V38" t="n">
-        <v>1857.269941849826</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="W38" t="n">
-        <v>1504.501286579712</v>
+        <v>2414.456999543818</v>
       </c>
       <c r="X38" t="n">
-        <v>1504.501286579712</v>
+        <v>2040.991241282738</v>
       </c>
       <c r="Y38" t="n">
-        <v>1504.501286579712</v>
+        <v>1650.851909306927</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>938.8263565224324</v>
+        <v>938.8263565224329</v>
       </c>
       <c r="C39" t="n">
-        <v>764.3733272413054</v>
+        <v>764.3733272413059</v>
       </c>
       <c r="D39" t="n">
-        <v>615.4389175800541</v>
+        <v>615.4389175800545</v>
       </c>
       <c r="E39" t="n">
-        <v>456.2014625745985</v>
+        <v>456.201462574599</v>
       </c>
       <c r="F39" t="n">
-        <v>309.6669046014836</v>
+        <v>309.666904601484</v>
       </c>
       <c r="G39" t="n">
-        <v>172.8036234571332</v>
+        <v>172.8036234571333</v>
       </c>
       <c r="H39" t="n">
-        <v>77.47103387006487</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I39" t="n">
         <v>51.47062640842712</v>
@@ -7256,22 +7256,22 @@
         <v>223.6622844990726</v>
       </c>
       <c r="K39" t="n">
-        <v>644.5860975745758</v>
+        <v>644.5860975745759</v>
       </c>
       <c r="L39" t="n">
-        <v>1090.191999819268</v>
+        <v>904.8425639158713</v>
       </c>
       <c r="M39" t="n">
-        <v>1413.255888707354</v>
+        <v>1227.906452803958</v>
       </c>
       <c r="N39" t="n">
-        <v>1759.278962343452</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O39" t="n">
-        <v>2053.602678427199</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P39" t="n">
-        <v>2270.490342378294</v>
+        <v>2270.490342378295</v>
       </c>
       <c r="Q39" t="n">
         <v>2573.531320421356</v>
@@ -7280,22 +7280,22 @@
         <v>2573.531320421356</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.802791645261</v>
+        <v>2434.802791645262</v>
       </c>
       <c r="T39" t="n">
         <v>2240.143710981738</v>
       </c>
       <c r="U39" t="n">
-        <v>2012.042957472931</v>
+        <v>2012.042957472932</v>
       </c>
       <c r="V39" t="n">
         <v>1776.890849241189</v>
       </c>
       <c r="W39" t="n">
-        <v>1522.653492512987</v>
+        <v>1522.653492512988</v>
       </c>
       <c r="X39" t="n">
-        <v>1314.801992307454</v>
+        <v>1314.801992307455</v>
       </c>
       <c r="Y39" t="n">
         <v>1107.041693542501</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.47062640842712</v>
+        <v>1093.330339032089</v>
       </c>
       <c r="C40" t="n">
-        <v>51.47062640842712</v>
+        <v>924.3941561041819</v>
       </c>
       <c r="D40" t="n">
-        <v>51.47062640842712</v>
+        <v>774.2775166918461</v>
       </c>
       <c r="E40" t="n">
-        <v>51.47062640842712</v>
+        <v>626.364423109453</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47062640842712</v>
+        <v>479.4744756115426</v>
       </c>
       <c r="G40" t="n">
-        <v>51.47062640842712</v>
+        <v>311.3523040573389</v>
       </c>
       <c r="H40" t="n">
-        <v>51.47062640842712</v>
+        <v>161.4068485435022</v>
       </c>
       <c r="I40" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J40" t="n">
-        <v>67.53625427207787</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K40" t="n">
         <v>223.7738527315136</v>
@@ -7362,22 +7362,22 @@
         <v>1305.818606389895</v>
       </c>
       <c r="T40" t="n">
-        <v>1082.260287172206</v>
+        <v>1305.818606389895</v>
       </c>
       <c r="U40" t="n">
-        <v>793.134547483545</v>
+        <v>1274.978803862329</v>
       </c>
       <c r="V40" t="n">
-        <v>538.4500592776582</v>
+        <v>1274.978803862329</v>
       </c>
       <c r="W40" t="n">
-        <v>249.0328892406976</v>
+        <v>1274.978803862329</v>
       </c>
       <c r="X40" t="n">
-        <v>51.47062640842712</v>
+        <v>1274.978803862329</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.47062640842712</v>
+        <v>1274.978803862329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1423.326390120342</v>
+        <v>1796.792148381423</v>
       </c>
       <c r="C41" t="n">
-        <v>1423.326390120342</v>
+        <v>1796.792148381423</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.326390120342</v>
+        <v>1438.526449774672</v>
       </c>
       <c r="E41" t="n">
-        <v>1037.538137522098</v>
+        <v>1052.738197176428</v>
       </c>
       <c r="F41" t="n">
-        <v>626.5522327324907</v>
+        <v>641.7522923868205</v>
       </c>
       <c r="G41" t="n">
-        <v>210.5449472859647</v>
+        <v>225.7450069402945</v>
       </c>
       <c r="H41" t="n">
-        <v>51.47062640842712</v>
+        <v>129.5077627453789</v>
       </c>
       <c r="I41" t="n">
         <v>51.47062640842712</v>
       </c>
       <c r="J41" t="n">
-        <v>162.585705782391</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K41" t="n">
-        <v>700.7608828424961</v>
+        <v>683.6602009789625</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.206803827283</v>
+        <v>990.106121963749</v>
       </c>
       <c r="M41" t="n">
-        <v>1379.856374174573</v>
+        <v>1362.755692311039</v>
       </c>
       <c r="N41" t="n">
-        <v>1763.149612542046</v>
+        <v>1746.048930678512</v>
       </c>
       <c r="O41" t="n">
-        <v>2159.70586117911</v>
+        <v>2094.646605504858</v>
       </c>
       <c r="P41" t="n">
-        <v>2422.724910692195</v>
+        <v>2357.665655017943</v>
       </c>
       <c r="Q41" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R41" t="n">
         <v>2573.531320421356</v>
@@ -7453,10 +7453,10 @@
         <v>2573.531320421356</v>
       </c>
       <c r="X41" t="n">
-        <v>2200.065562160276</v>
+        <v>2573.531320421356</v>
       </c>
       <c r="Y41" t="n">
-        <v>1809.926230184464</v>
+        <v>2183.391988445544</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>172.8036234571333</v>
       </c>
       <c r="H42" t="n">
-        <v>77.47103387006487</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I42" t="n">
         <v>51.47062640842712</v>
@@ -7493,19 +7493,19 @@
         <v>223.6622844990726</v>
       </c>
       <c r="K42" t="n">
-        <v>644.5860975745758</v>
+        <v>644.5860975745759</v>
       </c>
       <c r="L42" t="n">
-        <v>1090.191999819269</v>
+        <v>904.8425639158713</v>
       </c>
       <c r="M42" t="n">
-        <v>1413.255888707355</v>
+        <v>1227.906452803958</v>
       </c>
       <c r="N42" t="n">
-        <v>1759.278962343452</v>
+        <v>1573.929526440055</v>
       </c>
       <c r="O42" t="n">
-        <v>2053.602678427199</v>
+        <v>1868.253242523802</v>
       </c>
       <c r="P42" t="n">
         <v>2270.490342378295</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>198.3605739063375</v>
+        <v>222.8028267604201</v>
       </c>
       <c r="C43" t="n">
-        <v>198.3605739063375</v>
+        <v>222.8028267604201</v>
       </c>
       <c r="D43" t="n">
-        <v>198.3605739063375</v>
+        <v>222.8028267604201</v>
       </c>
       <c r="E43" t="n">
-        <v>198.3605739063375</v>
+        <v>74.889733178027</v>
       </c>
       <c r="F43" t="n">
-        <v>51.47062640842712</v>
+        <v>74.889733178027</v>
       </c>
       <c r="G43" t="n">
         <v>51.47062640842712</v>
@@ -7569,7 +7569,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J43" t="n">
-        <v>67.53625427207787</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K43" t="n">
         <v>223.7738527315136</v>
@@ -7599,22 +7599,22 @@
         <v>1504.812354733476</v>
       </c>
       <c r="T43" t="n">
-        <v>1281.254035515787</v>
+        <v>1504.812354733476</v>
       </c>
       <c r="U43" t="n">
-        <v>992.1282958271258</v>
+        <v>1215.686615044815</v>
       </c>
       <c r="V43" t="n">
-        <v>737.443807621239</v>
+        <v>961.0021268389281</v>
       </c>
       <c r="W43" t="n">
-        <v>448.0266375842784</v>
+        <v>671.5849568019676</v>
       </c>
       <c r="X43" t="n">
-        <v>448.0266375842784</v>
+        <v>443.5954059039502</v>
       </c>
       <c r="Y43" t="n">
-        <v>227.2340584407483</v>
+        <v>222.8028267604201</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1291.733162441869</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="C44" t="n">
-        <v>1264.252069242805</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="D44" t="n">
-        <v>1264.252069242805</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="E44" t="n">
-        <v>878.4638166445607</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="F44" t="n">
-        <v>467.4779118549531</v>
+        <v>774.6353941754905</v>
       </c>
       <c r="G44" t="n">
-        <v>51.47062640842712</v>
+        <v>358.6281087289645</v>
       </c>
       <c r="H44" t="n">
         <v>51.47062640842712</v>
@@ -7648,52 +7648,52 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J44" t="n">
-        <v>321.2563972852573</v>
+        <v>329.991354802744</v>
       </c>
       <c r="K44" t="n">
-        <v>538.5276158999094</v>
+        <v>547.262573417396</v>
       </c>
       <c r="L44" t="n">
-        <v>844.9735368846959</v>
+        <v>853.7084944021825</v>
       </c>
       <c r="M44" t="n">
-        <v>1217.623107231986</v>
+        <v>1226.358064749473</v>
       </c>
       <c r="N44" t="n">
-        <v>1600.916345599459</v>
+        <v>1609.651303116946</v>
       </c>
       <c r="O44" t="n">
-        <v>1949.514020425805</v>
+        <v>1958.248977943292</v>
       </c>
       <c r="P44" t="n">
-        <v>2212.53306993889</v>
+        <v>2357.665655017943</v>
       </c>
       <c r="Q44" t="n">
-        <v>2572.068516582769</v>
+        <v>2507.009260908516</v>
       </c>
       <c r="R44" t="n">
         <v>2573.531320421356</v>
       </c>
       <c r="S44" t="n">
-        <v>2441.938092742882</v>
+        <v>2441.938092742883</v>
       </c>
       <c r="T44" t="n">
-        <v>2441.938092742882</v>
+        <v>2231.868103638465</v>
       </c>
       <c r="U44" t="n">
-        <v>2441.938092742882</v>
+        <v>1978.26284008898</v>
       </c>
       <c r="V44" t="n">
-        <v>2441.938092742882</v>
+        <v>1924.840324476504</v>
       </c>
       <c r="W44" t="n">
-        <v>2441.938092742882</v>
+        <v>1924.840324476504</v>
       </c>
       <c r="X44" t="n">
-        <v>2068.472334481803</v>
+        <v>1551.374566215424</v>
       </c>
       <c r="Y44" t="n">
-        <v>1678.333002505991</v>
+        <v>1161.235234239612</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>172.8036234571333</v>
       </c>
       <c r="H45" t="n">
-        <v>77.47103387006487</v>
+        <v>77.47103387006489</v>
       </c>
       <c r="I45" t="n">
         <v>51.47062640842712</v>
@@ -7730,22 +7730,22 @@
         <v>98.83215951206782</v>
       </c>
       <c r="K45" t="n">
-        <v>514.6573925244356</v>
+        <v>519.755972587571</v>
       </c>
       <c r="L45" t="n">
-        <v>774.9138588657311</v>
+        <v>780.0124389288665</v>
       </c>
       <c r="M45" t="n">
-        <v>1097.977747753817</v>
+        <v>1103.076327816953</v>
       </c>
       <c r="N45" t="n">
-        <v>1444.000821389915</v>
+        <v>1449.09940145305</v>
       </c>
       <c r="O45" t="n">
-        <v>1738.324537473662</v>
+        <v>1743.423117536797</v>
       </c>
       <c r="P45" t="n">
-        <v>2270.490342378295</v>
+        <v>2275.58892244143</v>
       </c>
       <c r="Q45" t="n">
         <v>2573.531320421356</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>517.4513470588606</v>
+        <v>366.4827454605412</v>
       </c>
       <c r="C46" t="n">
-        <v>517.4513470588606</v>
+        <v>366.4827454605412</v>
       </c>
       <c r="D46" t="n">
-        <v>517.4513470588606</v>
+        <v>366.4827454605412</v>
       </c>
       <c r="E46" t="n">
-        <v>369.5382534764675</v>
+        <v>366.4827454605412</v>
       </c>
       <c r="F46" t="n">
-        <v>369.5382534764675</v>
+        <v>219.5927979626309</v>
       </c>
       <c r="G46" t="n">
-        <v>201.4160819222638</v>
+        <v>51.47062640842712</v>
       </c>
       <c r="H46" t="n">
         <v>51.47062640842712</v>
@@ -7806,7 +7806,7 @@
         <v>51.47062640842712</v>
       </c>
       <c r="J46" t="n">
-        <v>67.53625427207787</v>
+        <v>67.53625427207788</v>
       </c>
       <c r="K46" t="n">
         <v>223.7738527315136</v>
@@ -7830,28 +7830,28 @@
         <v>1504.812354733476</v>
       </c>
       <c r="R46" t="n">
-        <v>1504.812354733476</v>
+        <v>1396.127074232353</v>
       </c>
       <c r="S46" t="n">
-        <v>1504.812354733476</v>
+        <v>1197.133325888772</v>
       </c>
       <c r="T46" t="n">
-        <v>1504.812354733476</v>
+        <v>973.5750066710832</v>
       </c>
       <c r="U46" t="n">
-        <v>1215.686615044815</v>
+        <v>684.4492669824219</v>
       </c>
       <c r="V46" t="n">
-        <v>1034.858067993839</v>
+        <v>594.4722963585585</v>
       </c>
       <c r="W46" t="n">
-        <v>745.440897956878</v>
+        <v>594.4722963585585</v>
       </c>
       <c r="X46" t="n">
-        <v>517.4513470588606</v>
+        <v>366.4827454605412</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.4513470588606</v>
+        <v>366.4827454605412</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N2" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>146.0261571736144</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,13 +8227,13 @@
         <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O5" t="n">
-        <v>244.7826565119678</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P6" t="n">
         <v>149.2771449294653</v>
@@ -8382,13 +8382,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.7592759669778</v>
+        <v>153.1409835421239</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8461,16 +8461,16 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>163.4617301689898</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>155.926839997373</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>137.7753813753193</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.4918012483018</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>317.0556696123226</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>293.8645739072606</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>176.9349689969271</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>64.20195672107491</v>
       </c>
       <c r="R12" t="n">
-        <v>30.88745500881012</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>160.2734257604715</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>137.7753813753193</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>187.2216524276743</v>
+        <v>187.2216524276738</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.7753813753198</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>50.78970824889261</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>259.3151561407246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>187.2216524276741</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>39.90287386355931</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>266.969122683834</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.7753813753193</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9491,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>187.2216524276739</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>187.2216524276738</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9646,13 +9646,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>298.7064712356432</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>229.9931190055563</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>187.2216524276737</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>78.83617152358573</v>
       </c>
       <c r="R24" t="n">
         <v>30.88745500881014</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>18.28955291488461</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>298.7064712356432</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>187.2216524276739</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>187.221652427674</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>170.9916459142935</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>61.50792840271484</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>98.55209857311439</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>187.2216524276739</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>30.88745500881014</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.00597278786756</v>
+        <v>18.28955291488461</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>259.3151561407244</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>187.221652427674</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.4918012483018</v>
+        <v>137.7753813753198</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>133.2241208003157</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>123.3062966841107</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>346.086147192463</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>30.88745500881014</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>266.9691226838339</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>39.90287386355914</v>
+        <v>137.7753813753198</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>187.2216524276736</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>137.7753813753197</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>48.4430038492107</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>187.2216524276741</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>187.2216524276743</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.2734257604711</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>137.7753813753196</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>259.3151561407246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>204.9272068639949</v>
       </c>
       <c r="R45" t="n">
         <v>30.88745500881014</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>77.25676497358228</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>51.98247927452456</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.8059716434256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4409498386617</v>
@@ -23436,7 +23436,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8368599137243</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>70.07161394152121</v>
+        <v>12.57347382662697</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2344822917747</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>97.58554471928784</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H14" t="n">
         <v>304.0859074973321</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.2772954016887</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>316.1823667029941</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>98.25276912272226</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I16" t="n">
         <v>108.8368599137244</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2344822917747</v>
+        <v>27.72791668088502</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>339.2659671269564</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>304.0859074973321</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>207.9692892133734</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>243.0672368674936</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>118.1912173817167</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.4460009586983</v>
@@ -23940,10 +23940,10 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T19" t="n">
-        <v>142.0166503825306</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>111.2570280574</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H20" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>31.03258524158855</v>
       </c>
       <c r="U20" t="n">
         <v>251.0692109139906</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>107.6225610515609</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.3003105934122</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>108.8368599137244</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.4460009586983</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>137.7214428812013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>52.02474939603496</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>6.154380078345383</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4409498386617</v>
@@ -24657,13 +24657,13 @@
         <v>221.3227360255122</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>37.34531009582722</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>120.929300055134</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.4460009586983</v>
@@ -24888,7 +24888,7 @@
         <v>107.5984276961118</v>
       </c>
       <c r="S31" t="n">
-        <v>30.12301518508957</v>
+        <v>197.003810860145</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4409498386617</v>
       </c>
       <c r="H34" t="n">
         <v>148.4460009586983</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.3227360255122</v>
+        <v>30.12301518508949</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2344822917747</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.48492309820506</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.6353268400392</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8472125920607</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T35" t="n">
         <v>207.9692892133734</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>47.83500488648764</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>148.4460009586983</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>108.8368599137244</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.23068703762641</v>
       </c>
       <c r="W37" t="n">
-        <v>20.84864740588853</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>70.2619956360914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8472125920607</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.0859074973321</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.2772954016887</v>
       </c>
       <c r="T38" t="n">
         <v>207.9692892133734</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0692109139906</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>191.7573910486504</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4409498386617</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.4460009586983</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>108.8368599137244</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>255.7030777894834</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>30.12301518508943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>146.6023298285699</v>
+        <v>208.8110357443657</v>
       </c>
       <c r="I41" t="n">
-        <v>77.25676497358228</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.2472304928706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4409498386617</v>
+        <v>143.2560341367578</v>
       </c>
       <c r="H43" t="n">
         <v>148.4460009586983</v>
@@ -25839,7 +25839,7 @@
         <v>197.003810860145</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3227360255122</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>338.066609503934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.0859074973321</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>77.25676497358228</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.9692892133734</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0692109139906</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>274.8639680137839</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.4460009586983</v>
       </c>
       <c r="I46" t="n">
         <v>108.8368599137244</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>107.5984276961118</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.003810860145</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3227360255122</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>73.11738174336145</v>
+        <v>163.0604424062033</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632023.9445715835</v>
+        <v>632023.9445715834</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632023.9445715836</v>
+        <v>632023.9445715834</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857311.7366594285</v>
+        <v>857311.7366594286</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857311.7366594286</v>
+        <v>857311.7366594285</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632023.9445715834</v>
+        <v>632023.9445715835</v>
       </c>
     </row>
     <row r="16">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>455620.496104431</v>
+        <v>455620.4961044308</v>
       </c>
       <c r="F2" t="n">
-        <v>455620.496104431</v>
+        <v>455620.4961044308</v>
       </c>
       <c r="G2" t="n">
         <v>455620.496104431</v>
       </c>
       <c r="H2" t="n">
-        <v>455620.4961044309</v>
+        <v>455620.496104431</v>
       </c>
       <c r="I2" t="n">
-        <v>587564.9019437846</v>
+        <v>587564.9019437844</v>
       </c>
       <c r="J2" t="n">
-        <v>587564.9019437847</v>
+        <v>587564.9019437848</v>
       </c>
       <c r="K2" t="n">
-        <v>587564.9019437846</v>
+        <v>587564.9019437841</v>
       </c>
       <c r="L2" t="n">
-        <v>587564.9019437847</v>
+        <v>587564.9019437848</v>
       </c>
       <c r="M2" t="n">
+        <v>455620.4961044312</v>
+      </c>
+      <c r="N2" t="n">
         <v>455620.4961044311</v>
-      </c>
-      <c r="N2" t="n">
-        <v>455620.496104431</v>
       </c>
       <c r="O2" t="n">
         <v>455620.4961044312</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3204.941699461776</v>
+        <v>3204.941699461775</v>
       </c>
       <c r="E3" t="n">
-        <v>875024.8519238398</v>
+        <v>875024.8519238397</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151442.5885750762</v>
+        <v>151442.5885750763</v>
       </c>
       <c r="J3" t="n">
         <v>4003.869454409995</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2611.279978297268</v>
+        <v>2611.279978297287</v>
       </c>
       <c r="M3" t="n">
-        <v>12026.67507491323</v>
+        <v>12026.67507491322</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>25048.99765378026</v>
       </c>
       <c r="F4" t="n">
-        <v>25048.99765378028</v>
+        <v>25048.99765378026</v>
       </c>
       <c r="G4" t="n">
-        <v>25048.99765378028</v>
+        <v>25048.99765378026</v>
       </c>
       <c r="H4" t="n">
         <v>25048.99765378026</v>
       </c>
       <c r="I4" t="n">
+        <v>74680.16211261948</v>
+      </c>
+      <c r="J4" t="n">
         <v>74680.1621126195</v>
       </c>
-      <c r="J4" t="n">
-        <v>74680.16211261948</v>
-      </c>
       <c r="K4" t="n">
-        <v>74680.1621126195</v>
+        <v>74680.16211261947</v>
       </c>
       <c r="L4" t="n">
         <v>74680.1621126195</v>
       </c>
       <c r="M4" t="n">
-        <v>25048.99765378027</v>
+        <v>25048.99765378028</v>
       </c>
       <c r="N4" t="n">
-        <v>25048.99765378026</v>
+        <v>25048.99765378028</v>
       </c>
       <c r="O4" t="n">
-        <v>25048.99765378026</v>
+        <v>25048.99765378028</v>
       </c>
       <c r="P4" t="n">
         <v>25048.99765378027</v>
@@ -26478,16 +26478,16 @@
         <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>57856.12384700601</v>
+        <v>57856.123847006</v>
       </c>
       <c r="F5" t="n">
-        <v>57856.12384700601</v>
+        <v>57856.123847006</v>
       </c>
       <c r="G5" t="n">
-        <v>57856.12384700601</v>
+        <v>57856.123847006</v>
       </c>
       <c r="H5" t="n">
-        <v>57856.12384700601</v>
+        <v>57856.123847006</v>
       </c>
       <c r="I5" t="n">
         <v>92481.85624634504</v>
@@ -26502,16 +26502,16 @@
         <v>92481.85624634504</v>
       </c>
       <c r="M5" t="n">
-        <v>57856.123847006</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="N5" t="n">
-        <v>57856.123847006</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="O5" t="n">
-        <v>57856.123847006</v>
+        <v>57856.12384700601</v>
       </c>
       <c r="P5" t="n">
-        <v>57856.123847006</v>
+        <v>57856.12384700601</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173568.474340227</v>
+        <v>173568.4743402271</v>
       </c>
       <c r="C6" t="n">
-        <v>178696.7736445114</v>
+        <v>178696.7736445118</v>
       </c>
       <c r="D6" t="n">
-        <v>176551.9592367978</v>
+        <v>176551.9592367979</v>
       </c>
       <c r="E6" t="n">
-        <v>-507648.1716966544</v>
+        <v>-502843.3467578411</v>
       </c>
       <c r="F6" t="n">
-        <v>367376.6802271853</v>
+        <v>372181.5051659985</v>
       </c>
       <c r="G6" t="n">
-        <v>367376.6802271853</v>
+        <v>372181.5051659988</v>
       </c>
       <c r="H6" t="n">
-        <v>367376.6802271852</v>
+        <v>372181.5051659988</v>
       </c>
       <c r="I6" t="n">
-        <v>268019.7474945962</v>
+        <v>268866.2402582288</v>
       </c>
       <c r="J6" t="n">
-        <v>415458.4666152625</v>
+        <v>416304.9593788955</v>
       </c>
       <c r="K6" t="n">
-        <v>419462.3360696724</v>
+        <v>420308.8288333048</v>
       </c>
       <c r="L6" t="n">
-        <v>416851.0560913752</v>
+        <v>417697.5488550082</v>
       </c>
       <c r="M6" t="n">
-        <v>355350.0051522722</v>
+        <v>360154.8300910858</v>
       </c>
       <c r="N6" t="n">
-        <v>367376.6802271854</v>
+        <v>372181.5051659989</v>
       </c>
       <c r="O6" t="n">
-        <v>367376.6802271855</v>
+        <v>372181.5051659989</v>
       </c>
       <c r="P6" t="n">
-        <v>367376.6802271854</v>
+        <v>372181.5051659988</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>859.5618246147429</v>
+        <v>859.5618246147428</v>
       </c>
       <c r="F3" t="n">
         <v>859.5618246147428</v>
@@ -26798,16 +26798,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>643.3828301053391</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="F4" t="n">
-        <v>643.3828301053391</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="G4" t="n">
-        <v>643.3828301053391</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="H4" t="n">
-        <v>643.3828301053391</v>
+        <v>643.3828301053389</v>
       </c>
       <c r="I4" t="n">
         <v>1212.885007726047</v>
@@ -26822,16 +26822,16 @@
         <v>1212.885007726047</v>
       </c>
       <c r="M4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="N4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="O4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
       <c r="P4" t="n">
-        <v>643.3828301053389</v>
+        <v>643.3828301053391</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>859.5618246147429</v>
+        <v>859.5618246147428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.31755367949579</v>
+        <v>10.31755367949578</v>
       </c>
       <c r="E4" t="n">
-        <v>617.7625389107083</v>
+        <v>617.7625389107081</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>569.5021776207077</v>
+        <v>569.502177620708</v>
       </c>
       <c r="J4" t="n">
         <v>15.30273751513505</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949579</v>
+        <v>10.31755367949586</v>
       </c>
       <c r="M4" t="n">
-        <v>48.26036129000029</v>
+        <v>48.26036129000022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.31755367949579</v>
+        <v>10.31755367949578</v>
       </c>
       <c r="M4" t="n">
-        <v>617.7625389107083</v>
+        <v>617.7625389107081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>368.4517188689308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>391.5733082265764</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>143.027717791841</v>
       </c>
       <c r="S2" t="n">
-        <v>193.7173320711103</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>124.6114572861376</v>
       </c>
       <c r="H3" t="n">
         <v>96.93270672136141</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>148.7485213041086</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27584,13 +27584,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1060021487638</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>203.6344894210972</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>244.5042527585278</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27715,7 +27715,7 @@
         <v>99.50338435942338</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>184.8619911796866</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0747697137129</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6638375547068</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>178.3449675368486</v>
       </c>
       <c r="U9" t="n">
         <v>200.321090886344</v>
       </c>
       <c r="V9" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>229.8752220029466</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.987068432813</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>141.626529903997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E10" t="n">
-        <v>120.8136714519383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>119.8007568283004</v>
+        <v>122.225336905059</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31758,7 +31758,7 @@
         <v>35.3888946184351</v>
       </c>
       <c r="I11" t="n">
-        <v>133.2191245968237</v>
+        <v>133.2191245968236</v>
       </c>
       <c r="J11" t="n">
         <v>293.2833584397811</v>
@@ -31767,28 +31767,28 @@
         <v>439.555728433518</v>
       </c>
       <c r="L11" t="n">
-        <v>545.3077492980545</v>
+        <v>545.3077492980544</v>
       </c>
       <c r="M11" t="n">
-        <v>606.7599406487778</v>
+        <v>606.7599406487777</v>
       </c>
       <c r="N11" t="n">
-        <v>616.5779508364628</v>
+        <v>616.5779508364627</v>
       </c>
       <c r="O11" t="n">
-        <v>582.2170748826424</v>
+        <v>582.2170748826422</v>
       </c>
       <c r="P11" t="n">
-        <v>496.9088033442444</v>
+        <v>496.9088033442443</v>
       </c>
       <c r="Q11" t="n">
-        <v>373.1578170366445</v>
+        <v>373.1578170366444</v>
       </c>
       <c r="R11" t="n">
-        <v>217.0631174490688</v>
+        <v>217.0631174490687</v>
       </c>
       <c r="S11" t="n">
-        <v>78.74277418455662</v>
+        <v>78.74277418455661</v>
       </c>
       <c r="T11" t="n">
         <v>15.12656035075793</v>
@@ -31837,7 +31837,7 @@
         <v>17.85618054529872</v>
       </c>
       <c r="I12" t="n">
-        <v>63.65622946439371</v>
+        <v>63.6562294643937</v>
       </c>
       <c r="J12" t="n">
         <v>174.6775590945866</v>
@@ -31855,7 +31855,7 @@
         <v>480.8599682814117</v>
       </c>
       <c r="O12" t="n">
-        <v>439.8929273573204</v>
+        <v>439.8929273573203</v>
       </c>
       <c r="P12" t="n">
         <v>353.05285584978</v>
@@ -31867,10 +31867,10 @@
         <v>114.7920489551538</v>
       </c>
       <c r="S12" t="n">
-        <v>34.3419276155041</v>
+        <v>34.34192761550409</v>
       </c>
       <c r="T12" t="n">
-        <v>7.452238837933476</v>
+        <v>7.452238837933475</v>
       </c>
       <c r="U12" t="n">
         <v>0.1216361072568033</v>
@@ -31913,10 +31913,10 @@
         <v>1.550029519797077</v>
       </c>
       <c r="H13" t="n">
-        <v>13.7811715487413</v>
+        <v>13.78117154874129</v>
       </c>
       <c r="I13" t="n">
-        <v>46.61361501353394</v>
+        <v>46.61361501353393</v>
       </c>
       <c r="J13" t="n">
         <v>109.5870870496533</v>
@@ -31931,28 +31931,28 @@
         <v>242.9741728169182</v>
       </c>
       <c r="N13" t="n">
-        <v>237.1967900613111</v>
+        <v>237.196790061311</v>
       </c>
       <c r="O13" t="n">
         <v>219.0896270345906</v>
       </c>
       <c r="P13" t="n">
-        <v>187.4690248307301</v>
+        <v>187.46902483073</v>
       </c>
       <c r="Q13" t="n">
         <v>129.7938355168262</v>
       </c>
       <c r="R13" t="n">
-        <v>69.69496368105766</v>
+        <v>69.69496368105764</v>
       </c>
       <c r="S13" t="n">
-        <v>27.01278717682724</v>
+        <v>27.01278717682723</v>
       </c>
       <c r="T13" t="n">
-        <v>6.622853402769328</v>
+        <v>6.622853402769327</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08454706471620431</v>
+        <v>0.0845470647162043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>15.30273751513505</v>
@@ -35102,13 +35102,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="P8" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>281.3340690851686</v>
       </c>
       <c r="K11" t="n">
-        <v>219.4658773885375</v>
+        <v>219.4658773885374</v>
       </c>
       <c r="L11" t="n">
-        <v>309.5413343280673</v>
+        <v>309.5413343280672</v>
       </c>
       <c r="M11" t="n">
-        <v>376.4137074215051</v>
+        <v>376.413707421505</v>
       </c>
       <c r="N11" t="n">
-        <v>387.1648872398719</v>
+        <v>387.1648872398718</v>
       </c>
       <c r="O11" t="n">
-        <v>352.1188634609556</v>
+        <v>489.8942448362748</v>
       </c>
       <c r="P11" t="n">
-        <v>265.6758075889749</v>
+        <v>265.6758075889748</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.3439284104967</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R11" t="n">
-        <v>1.477579634936632</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K12" t="n">
-        <v>160.710331750556</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L12" t="n">
-        <v>262.8853195366622</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M12" t="n">
-        <v>643.3828301053391</v>
+        <v>326.3271604930164</v>
       </c>
       <c r="N12" t="n">
-        <v>643.3828301053391</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O12" t="n">
-        <v>474.2316519098031</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P12" t="n">
-        <v>219.0784484354498</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.02471028744529</v>
+        <v>160.2266670085202</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.63421480251068</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.22790693298057</v>
+        <v>16.22790693298056</v>
       </c>
       <c r="K13" t="n">
         <v>157.8157560196321</v>
@@ -35576,19 +35576,19 @@
         <v>258.0371413217835</v>
       </c>
       <c r="M13" t="n">
-        <v>282.5580497787588</v>
+        <v>282.5580497787587</v>
       </c>
       <c r="N13" t="n">
-        <v>281.3289624405397</v>
+        <v>281.3289624405396</v>
       </c>
       <c r="O13" t="n">
-        <v>243.6747549486303</v>
+        <v>243.6747549486302</v>
       </c>
       <c r="P13" t="n">
-        <v>184.7475840956236</v>
+        <v>184.7475840956235</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.63179226513181</v>
+        <v>43.63179226513178</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>272.5108796735663</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K14" t="n">
         <v>219.4658773885374</v>
@@ -35667,10 +35667,10 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q14" t="n">
-        <v>363.1671178220996</v>
+        <v>288.6275085375142</v>
       </c>
       <c r="R14" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P15" t="n">
-        <v>406.300100863124</v>
+        <v>406.3001008631235</v>
       </c>
       <c r="Q15" t="n">
         <v>306.1019980232944</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>281.3340690851686</v>
+        <v>112.2374539130948</v>
       </c>
       <c r="K17" t="n">
         <v>219.4658773885374</v>
@@ -35901,13 +35901,13 @@
         <v>352.1188634609555</v>
       </c>
       <c r="P17" t="n">
-        <v>265.6758075889748</v>
+        <v>587.4745157604575</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.6275085375147</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R17" t="n">
-        <v>67.19399950791905</v>
+        <v>52.26728788382921</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K18" t="n">
-        <v>420.0254878912806</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L18" t="n">
-        <v>262.8853195366621</v>
+        <v>450.1069719643362</v>
       </c>
       <c r="M18" t="n">
         <v>326.3271604930164</v>
@@ -35980,7 +35980,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P18" t="n">
-        <v>537.5412170753868</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q18" t="n">
         <v>306.1019980232944</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K20" t="n">
         <v>219.4658773885374</v>
       </c>
       <c r="L20" t="n">
-        <v>349.4442081916265</v>
+        <v>309.5413343280672</v>
       </c>
       <c r="M20" t="n">
-        <v>643.3828301053391</v>
+        <v>376.413707421505</v>
       </c>
       <c r="N20" t="n">
         <v>387.1648872398718</v>
@@ -36141,7 +36141,7 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.8521271621949</v>
+        <v>288.6275085375142</v>
       </c>
       <c r="R20" t="n">
         <v>67.19399950791905</v>
@@ -36211,13 +36211,13 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N21" t="n">
-        <v>536.7399086257523</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O21" t="n">
         <v>297.2966829128759</v>
       </c>
       <c r="P21" t="n">
-        <v>219.0784484354497</v>
+        <v>406.3001008631235</v>
       </c>
       <c r="Q21" t="n">
         <v>306.1019980232944</v>
@@ -36366,13 +36366,13 @@
         <v>727.2025488785176</v>
       </c>
       <c r="M23" t="n">
-        <v>825.9272409143375</v>
+        <v>675.1201786571482</v>
       </c>
       <c r="N23" t="n">
         <v>824.511811651856</v>
       </c>
       <c r="O23" t="n">
-        <v>582.1119824665118</v>
+        <v>732.9190447237008</v>
       </c>
       <c r="P23" t="n">
         <v>587.4745157604575</v>
@@ -36448,16 +36448,16 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N24" t="n">
-        <v>536.739908625752</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O24" t="n">
         <v>297.2966829128759</v>
       </c>
       <c r="P24" t="n">
-        <v>219.0784484354497</v>
+        <v>537.5412170753868</v>
       </c>
       <c r="Q24" t="n">
-        <v>306.1019980232944</v>
+        <v>174.860881811031</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>281.3340690851686</v>
+        <v>130.5270068279794</v>
       </c>
       <c r="K26" t="n">
         <v>543.6112899597022</v>
@@ -36603,7 +36603,7 @@
         <v>727.2025488785176</v>
       </c>
       <c r="M26" t="n">
-        <v>675.1201786571482</v>
+        <v>825.9272409143375</v>
       </c>
       <c r="N26" t="n">
         <v>824.511811651856</v>
@@ -36679,7 +36679,7 @@
         <v>425.1755687631346</v>
       </c>
       <c r="L27" t="n">
-        <v>450.106971964336</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M27" t="n">
         <v>326.3271604930164</v>
@@ -36691,7 +36691,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P27" t="n">
-        <v>219.0784484354497</v>
+        <v>406.3001008631238</v>
       </c>
       <c r="Q27" t="n">
         <v>306.1019980232944</v>
@@ -36849,10 +36849,10 @@
         <v>732.9190447237008</v>
       </c>
       <c r="P29" t="n">
-        <v>436.6674535032683</v>
+        <v>587.4745157604575</v>
       </c>
       <c r="Q29" t="n">
-        <v>363.1671178220996</v>
+        <v>212.3600555649098</v>
       </c>
       <c r="R29" t="n">
         <v>67.19399950791905</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K30" t="n">
-        <v>259.2624303236704</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L30" t="n">
-        <v>633.7256648401212</v>
+        <v>450.106971964336</v>
       </c>
       <c r="M30" t="n">
         <v>326.3271604930164</v>
@@ -36928,10 +36928,10 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P30" t="n">
-        <v>537.5412170753868</v>
+        <v>219.0784484354497</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.2434267009623</v>
+        <v>130.5270068279794</v>
       </c>
       <c r="K32" t="n">
         <v>543.6112899597022</v>
@@ -37092,7 +37092,7 @@
         <v>363.1671178220996</v>
       </c>
       <c r="R32" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K33" t="n">
-        <v>420.0254878912804</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L33" t="n">
         <v>262.8853195366621</v>
@@ -37165,7 +37165,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P33" t="n">
-        <v>537.5412170753868</v>
+        <v>406.3001008631238</v>
       </c>
       <c r="Q33" t="n">
         <v>306.1019980232944</v>
@@ -37326,10 +37326,10 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q35" t="n">
-        <v>354.3439284104967</v>
+        <v>288.6275085375147</v>
       </c>
       <c r="R35" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>47.8399324279199</v>
+        <v>173.9309677683287</v>
       </c>
       <c r="K36" t="n">
-        <v>160.710331750556</v>
+        <v>293.9344525508718</v>
       </c>
       <c r="L36" t="n">
         <v>262.8853195366621</v>
@@ -37396,16 +37396,16 @@
         <v>326.3271604930164</v>
       </c>
       <c r="N36" t="n">
-        <v>472.824552882189</v>
+        <v>349.5182561980783</v>
       </c>
       <c r="O36" t="n">
-        <v>643.3828301053389</v>
+        <v>297.2966829128759</v>
       </c>
       <c r="P36" t="n">
         <v>537.5412170753868</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.02471028744526</v>
+        <v>306.1019980232944</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K38" t="n">
         <v>219.4658773885374</v>
@@ -37551,7 +37551,7 @@
         <v>309.5413343280672</v>
       </c>
       <c r="M38" t="n">
-        <v>643.3828301053389</v>
+        <v>376.413707421505</v>
       </c>
       <c r="N38" t="n">
         <v>387.1648872398718</v>
@@ -37563,7 +37563,7 @@
         <v>265.6758075889748</v>
       </c>
       <c r="Q38" t="n">
-        <v>190.7550010257541</v>
+        <v>288.6275085375147</v>
       </c>
       <c r="R38" t="n">
         <v>67.19399950791905</v>
@@ -37627,7 +37627,7 @@
         <v>425.1755687631346</v>
       </c>
       <c r="L39" t="n">
-        <v>450.1069719643357</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M39" t="n">
         <v>326.3271604930164</v>
@@ -37639,7 +37639,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P39" t="n">
-        <v>219.0784484354497</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q39" t="n">
         <v>306.1019980232944</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>112.2374539130948</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K41" t="n">
-        <v>543.6112899597022</v>
+        <v>357.2412587638571</v>
       </c>
       <c r="L41" t="n">
         <v>309.5413343280672</v>
@@ -37794,7 +37794,7 @@
         <v>387.1648872398718</v>
       </c>
       <c r="O41" t="n">
-        <v>400.5618673101662</v>
+        <v>352.1188634609555</v>
       </c>
       <c r="P41" t="n">
         <v>265.6758075889748</v>
@@ -37803,7 +37803,7 @@
         <v>150.8521271621949</v>
       </c>
       <c r="R41" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>425.1755687631346</v>
       </c>
       <c r="L42" t="n">
-        <v>450.1069719643362</v>
+        <v>262.8853195366621</v>
       </c>
       <c r="M42" t="n">
         <v>326.3271604930164</v>
@@ -37876,7 +37876,7 @@
         <v>297.2966829128759</v>
       </c>
       <c r="P42" t="n">
-        <v>219.0784484354497</v>
+        <v>406.300100863124</v>
       </c>
       <c r="Q42" t="n">
         <v>306.1019980232944</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>272.5108796735659</v>
+        <v>281.3340690851686</v>
       </c>
       <c r="K44" t="n">
         <v>219.4658773885374</v>
@@ -38034,13 +38034,13 @@
         <v>352.1188634609555</v>
       </c>
       <c r="P44" t="n">
-        <v>265.6758075889748</v>
+        <v>403.4511889642944</v>
       </c>
       <c r="Q44" t="n">
-        <v>363.1671178220996</v>
+        <v>150.8521271621949</v>
       </c>
       <c r="R44" t="n">
-        <v>1.477579634936603</v>
+        <v>67.19399950791905</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>47.8399324279199</v>
       </c>
       <c r="K45" t="n">
-        <v>420.0254878912806</v>
+        <v>425.1755687631346</v>
       </c>
       <c r="L45" t="n">
         <v>262.8853195366621</v>
@@ -38116,7 +38116,7 @@
         <v>537.5412170753868</v>
       </c>
       <c r="Q45" t="n">
-        <v>306.1019980232944</v>
+        <v>300.9519171514402</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
